--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:24 AM</t>
+    <t>Saturday, 9 August, 2025 9:29 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
     <t>13.8600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>COLD FREE 20 TAB.</t>
   </si>
   <si>
@@ -71,7 +83,19 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:29 AM</t>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>Saturday, 9 August, 2025 9:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -745,7 +769,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -755,49 +779,115 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>38.859999999999999</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>21</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>22</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>74.5</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>28</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>29</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>30</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -816,10 +906,20 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -95,7 +95,34 @@
     <t>15.8400</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:31 AM</t>
+    <t>كريم فريند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 9 August, 2025 9:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -856,38 +883,104 @@
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>74.5</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>28</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>29</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
         <v>30</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>30</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>139.5</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>39</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -916,10 +1009,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -122,7 +122,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:32 AM</t>
+    <t>Saturday, 9 August, 2025 9:33 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -95,15 +95,42 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>جل صبار للبشره</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>فازلين هير تونك 200مل</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>كريم فريند لافلي الكبير</t>
   </si>
   <si>
     <t>20:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -113,16 +140,13 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:33 AM</t>
+    <t>Saturday, 9 August, 2025 9:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -909,7 +933,7 @@
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -921,14 +945,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -938,49 +962,148 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>139.5</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>35</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>30</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>36</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>37</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>39</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>30</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>33</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>30</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>43</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>299.5</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>46</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>47</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1019,10 +1142,25 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -113,12 +113,21 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>رباط ضغط 6سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>فازلين هير تونك 200مل</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -146,7 +155,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:48 AM</t>
+    <t>Saturday, 9 August, 2025 9:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1018,7 +1027,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1028,11 +1037,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1044,14 +1053,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1072,38 +1081,71 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>299.5</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>45</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>33</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>30</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>46</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>47</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>314.5</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>48</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>49</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>50</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1157,10 +1199,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -155,7 +155,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:50 AM</t>
+    <t>Saturday, 9 August, 2025 9:55 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -95,6 +95,33 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -116,9 +143,6 @@
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -155,7 +179,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:55 AM</t>
+    <t>Saturday, 9 August, 2025 9:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -934,18 +958,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -954,28 +978,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -987,28 +1011,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1020,28 +1044,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1053,28 +1077,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1086,66 +1110,132 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>314.5</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>48</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>49</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>50</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>39</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>42</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>39</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>54</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>345.5</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>56</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>57</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>58</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1204,10 +1294,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:56 AM</t>
+    <t>Saturday, 9 August, 2025 9:57 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -128,9 +140,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -179,7 +188,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:57 AM</t>
+    <t>Saturday, 9 August, 2025 10:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -952,13 +961,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -969,7 +978,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -978,14 +987,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -995,14 +1004,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1024,15 +1033,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1057,11 +1066,11 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1077,28 +1086,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1117,13 +1126,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1150,21 +1159,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1176,20 +1185,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1204,38 +1213,71 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>345.5</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>56</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>45</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>29</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>57</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>372.5</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>59</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>60</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>61</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1304,10 +1346,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -179,6 +179,9 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
@@ -188,7 +191,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 10:24 AM</t>
+    <t>Saturday, 9 August, 2025 10:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1225,7 +1228,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1235,49 +1238,82 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>372.5</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>45</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>29</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>58</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>59</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>387.5</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
         <v>60</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
         <v>61</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>62</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1351,10 +1387,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 10:26 AM</t>
+    <t>Saturday, 9 August, 2025 11:15 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 11:15 AM</t>
+    <t>Saturday, 9 August, 2025 11:23 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>GELOGAR DROPS 15ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -119,9 +131,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -191,7 +200,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 11:23 AM</t>
+    <t>Saturday, 9 August, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -948,7 +957,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -964,13 +973,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -997,13 +1006,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1014,7 +1023,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1023,14 +1032,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1040,14 +1049,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1056,28 +1065,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1102,11 +1111,11 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1122,28 +1131,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1162,13 +1171,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1195,21 +1204,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1221,28 +1230,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1254,66 +1263,99 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>387.5</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>60</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>48</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>33</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>61</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>62</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>459.5</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>63</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>64</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>65</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1392,10 +1434,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>HEALSEC 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -200,7 +209,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 11:27 AM</t>
+    <t>Saturday, 9 August, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -973,7 +982,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -983,14 +992,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -999,28 +1008,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1032,31 +1041,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1065,14 +1074,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1082,14 +1091,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1098,28 +1107,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1144,11 +1153,11 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1164,28 +1173,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1210,7 +1219,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1237,21 +1246,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1263,28 +1272,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1296,66 +1305,99 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>459.5</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>63</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>51</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>36</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>64</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>65</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>532.5</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>66</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>67</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>68</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1439,10 +1481,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -62,6 +62,33 @@
     <t>0:1</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -119,15 +146,21 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
     <t>27.0000</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -167,6 +200,18 @@
     <t>5:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>60:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
@@ -176,6 +221,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>فازلين هير تونك 200مل</t>
   </si>
   <si>
@@ -185,6 +239,9 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم فريند لافلي الكبير</t>
   </si>
   <si>
@@ -200,6 +257,15 @@
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
@@ -209,7 +275,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 11:55 AM</t>
+    <t>Saturday, 9 August, 2025 11:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -889,15 +955,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -909,14 +975,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -926,11 +992,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -942,14 +1008,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -959,14 +1025,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -975,14 +1041,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -992,14 +1058,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1008,14 +1074,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1025,14 +1091,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1041,7 +1107,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1054,18 +1120,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1074,14 +1140,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1091,14 +1157,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1107,20 +1173,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1131,7 +1197,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1153,18 +1219,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1186,18 +1252,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1206,28 +1272,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1239,28 +1305,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1272,20 +1338,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1293,7 +1359,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1305,28 +1371,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1338,66 +1404,297 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>532.5</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>66</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>67</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>34</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>19</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>34</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>74</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>34</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>19</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>68</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>77</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>78</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>19</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>79</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>78</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>19</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>68</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>55</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>19</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>83</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>85</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>62</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>19</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>86</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>618.94000000000005</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>88</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>89</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>90</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1486,10 +1783,45 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -194,6 +203,18 @@
     <t>25.00</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>جل صبار للبشره</t>
   </si>
   <si>
@@ -215,12 +236,6 @@
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -260,12 +275,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
@@ -275,7 +284,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 11:59 AM</t>
+    <t>Saturday, 9 August, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1186,7 +1195,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1197,7 +1206,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1213,17 +1222,17 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1256,14 +1265,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1272,14 +1281,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1289,14 +1298,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1305,28 +1314,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1355,7 +1364,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1371,14 +1380,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1388,11 +1397,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1404,14 +1413,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1421,11 +1430,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1444,7 +1453,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1454,11 +1463,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1470,7 +1479,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1487,11 +1496,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1503,7 +1512,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1520,11 +1529,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1536,14 +1545,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1576,7 +1585,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1586,11 +1595,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1609,7 +1618,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1619,11 +1628,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1635,14 +1644,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1652,49 +1661,115 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>87</v>
       </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>618.94000000000005</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>58</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>19</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>45</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>88</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>69</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>19</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>89</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>90</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>657.94000000000005</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>91</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>92</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>93</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1818,10 +1893,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -284,7 +284,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 12:34 PM</t>
+    <t>Saturday, 9 August, 2025 12:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -284,7 +284,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 12:48 PM</t>
+    <t>Saturday, 9 August, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -110,12 +110,21 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>GELOGAR DROPS 15ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -143,6 +152,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -170,6 +188,15 @@
     <t>4.8000</t>
   </si>
   <si>
+    <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -284,7 +311,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 12:49 PM</t>
+    <t>Saturday, 9 August, 2025 12:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1123,7 +1150,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1156,7 +1183,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1166,14 +1193,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1182,14 +1209,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1206,7 +1233,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1228,7 +1255,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1255,7 +1282,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1265,14 +1292,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1288,24 +1315,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1314,14 +1341,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1331,14 +1358,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1347,28 +1374,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1380,31 +1407,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1413,28 +1440,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1467,7 +1494,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1479,14 +1506,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1496,11 +1523,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1512,14 +1539,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1529,11 +1556,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1545,14 +1572,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1562,11 +1589,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1578,7 +1605,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1595,11 +1622,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1628,11 +1655,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1644,14 +1671,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1661,11 +1688,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1694,11 +1721,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1727,49 +1754,148 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>657.94000000000005</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>91</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>92</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>93</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>19</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>75</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>96</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>67</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>19</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>51</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>97</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>78</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>19</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>98</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>810.44000000000005</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>100</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>101</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>102</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1903,10 +2029,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 12:54 PM</t>
+    <t>Saturday, 9 August, 2025 12:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -272,6 +281,24 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>فازلين هير تونك 200مل</t>
   </si>
   <si>
@@ -311,7 +338,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 12:55 PM</t>
+    <t>Saturday, 9 August, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1480,21 +1507,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1527,7 +1554,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1539,14 +1566,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1556,11 +1583,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1572,14 +1599,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1589,11 +1616,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1605,14 +1632,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1622,11 +1649,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1638,7 +1665,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1655,11 +1682,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1711,7 +1738,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1721,11 +1748,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1737,14 +1764,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1754,11 +1781,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1770,14 +1797,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1787,11 +1814,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1803,14 +1830,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1820,11 +1847,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1836,14 +1863,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1853,49 +1880,148 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>810.44000000000005</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>100</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>104</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>101</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>102</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>19</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>78</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>105</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>67</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>19</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>51</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>106</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>81</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>19</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>107</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>971.44000000000005</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>109</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>110</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>111</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2044,10 +2170,25 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -338,7 +338,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 12:57 PM</t>
+    <t>Saturday, 9 August, 2025 1:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -131,6 +140,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
     <t>HEALSEC 40MG 14 CAPS.</t>
   </si>
   <si>
@@ -338,7 +356,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 1:01 PM</t>
+    <t>Saturday, 9 August, 2025 1:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1144,7 +1162,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1154,11 +1172,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1170,14 +1188,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1210,7 +1228,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1243,7 +1261,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1253,14 +1271,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1269,7 +1287,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1286,14 +1304,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1302,14 +1320,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1326,7 +1344,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1348,7 +1366,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1375,7 +1393,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1385,14 +1403,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1414,7 +1432,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1425,7 +1443,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1451,14 +1469,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1467,14 +1485,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1484,11 +1502,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1500,14 +1518,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1517,14 +1535,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1533,28 +1551,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1573,21 +1591,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1599,14 +1617,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1616,7 +1634,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1672,7 +1690,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1682,11 +1700,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1698,14 +1716,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1715,11 +1733,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1731,14 +1749,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1748,11 +1766,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1764,14 +1782,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1781,7 +1799,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1804,7 +1822,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1814,11 +1832,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1847,11 +1865,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1863,14 +1881,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1880,11 +1898,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1913,11 +1931,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1929,14 +1947,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1946,11 +1964,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1962,14 +1980,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1979,49 +1997,115 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>971.44000000000005</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>109</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>110</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>111</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>73</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>19</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>57</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>112</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>87</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>19</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>113</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1200.4400000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>115</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>116</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>117</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2185,10 +2269,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -119,12 +119,21 @@
     <t>106.0000</t>
   </si>
   <si>
+    <t>DOZOVA FLEXETA 30 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>95.7000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
@@ -179,6 +188,18 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -218,9 +239,6 @@
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -233,12 +251,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -248,6 +260,21 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>58.0800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -356,7 +383,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 1:04 PM</t>
+    <t>Saturday, 9 August, 2025 1:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1228,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1212,7 +1239,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1261,7 +1288,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1294,7 +1321,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1327,7 +1354,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1337,14 +1364,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1353,14 +1380,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1410,7 +1437,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1426,24 +1453,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1452,14 +1479,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1469,14 +1496,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1485,7 +1512,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1498,18 +1525,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1518,14 +1545,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1535,14 +1562,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1558,7 +1585,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1568,11 +1595,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1584,14 +1611,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1601,14 +1628,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1617,28 +1644,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1650,28 +1677,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1683,31 +1710,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,7 +1764,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1749,14 +1776,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1766,11 +1793,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1782,14 +1809,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1799,11 +1826,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1815,14 +1842,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1832,11 +1859,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1848,14 +1875,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1865,11 +1892,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1921,7 +1948,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1931,11 +1958,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1947,14 +1974,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1964,11 +1991,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1980,14 +2007,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1997,11 +2024,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2013,14 +2040,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2030,11 +2057,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2046,14 +2073,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2063,49 +2090,148 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1200.4400000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>115</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>119</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>116</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>117</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>19</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>93</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>120</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>79</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>19</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>64</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>121</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>96</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>19</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>122</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1385.22</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>124</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>125</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>126</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2279,10 +2405,25 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 1:46 PM</t>
+    <t>Saturday, 9 August, 2025 1:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -200,15 +200,21 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -299,9 +305,6 @@
     <t>جل صبار للبشره</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -383,7 +386,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 1:59 PM</t>
+    <t>Saturday, 9 August, 2025 2:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1486,7 +1489,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1496,11 +1499,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1512,7 +1515,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1525,18 +1528,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1545,28 +1548,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1578,14 +1581,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1595,14 +1598,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1611,14 +1614,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1628,14 +1631,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1644,14 +1647,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1661,14 +1664,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1684,7 +1687,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,11 +1697,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1710,14 +1713,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1727,14 +1730,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1743,31 +1746,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1776,14 +1779,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1793,11 +1796,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1809,14 +1812,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1826,11 +1829,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1849,7 +1852,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1859,11 +1862,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1875,14 +1878,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1892,11 +1895,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1925,11 +1928,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1941,14 +1944,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1958,11 +1961,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1974,14 +1977,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1991,11 +1994,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2007,14 +2010,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2024,11 +2027,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2040,7 +2043,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2057,11 +2060,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2080,7 +2083,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2090,11 +2093,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2106,14 +2109,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2123,11 +2126,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2146,7 +2149,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2156,11 +2159,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2179,7 +2182,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2189,49 +2192,82 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>122</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>64</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>19</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>123</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1385.22</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>124</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1409.22</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
         <v>125</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
         <v>126</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>127</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2420,10 +2456,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -188,75 +188,72 @@
     <t>72.5000</t>
   </si>
   <si>
-    <t>OPLEX-N SYRUP 125ML</t>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>31.00</t>
   </si>
   <si>
     <t>31.0000</t>
   </si>
   <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -386,7 +383,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 2:00 PM</t>
+    <t>Saturday, 9 August, 2025 2:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1489,7 +1486,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1499,11 +1496,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1515,7 +1512,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1528,7 +1525,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1539,7 +1536,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1548,28 +1545,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1581,14 +1578,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1598,14 +1595,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1614,14 +1611,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1638,7 +1635,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1654,7 +1651,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1664,14 +1661,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1680,14 +1677,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1697,11 +1694,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1713,14 +1710,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1730,14 +1727,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1746,31 +1743,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1779,14 +1776,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1796,11 +1793,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1812,14 +1809,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1829,11 +1826,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1852,7 +1849,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1862,11 +1859,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1878,14 +1875,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1895,11 +1892,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1928,11 +1925,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1944,14 +1941,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1961,11 +1958,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1977,14 +1974,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1994,11 +1991,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2010,14 +2007,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2027,11 +2024,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2043,7 +2040,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2060,11 +2057,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2083,7 +2080,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2093,11 +2090,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2109,14 +2106,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2126,11 +2123,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2149,7 +2146,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2159,11 +2156,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2182,7 +2179,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2192,82 +2189,49 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="A43" s="7">
-        <v>37</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c t="s" r="C43" s="8">
-        <v>122</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c t="s" r="H43" s="9">
-        <v>64</v>
-      </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c t="s" r="L43" s="10">
-        <v>19</v>
-      </c>
-      <c r="M43" s="10"/>
-      <c t="s" r="N43" s="8">
-        <v>123</v>
-      </c>
-      <c r="O43" s="8"/>
-      <c t="s" r="P43" s="11">
+      <c r="P43" s="13">
+        <v>1378.22</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
         <v>124</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1409.22</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
         <v>125</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
         <v>126</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>127</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2456,15 +2420,10 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 2:01 PM</t>
+    <t>Saturday, 9 August, 2025 2:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -206,10 +206,16 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>108.00</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
@@ -278,6 +284,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -323,7 +338,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاور جل مود </t>
@@ -383,7 +401,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 2:07 PM</t>
+    <t>Saturday, 9 August, 2025 2:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1519,7 +1537,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1529,14 +1547,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1545,14 +1563,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1566,7 +1584,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1578,7 +1596,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1595,11 +1613,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1611,14 +1629,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1628,11 +1646,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>37</v>
@@ -1644,14 +1662,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1661,11 +1679,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1677,14 +1695,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,11 +1712,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1710,14 +1728,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1727,14 +1745,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1743,31 +1761,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1776,14 +1794,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1793,11 +1811,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1809,14 +1827,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1826,11 +1844,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1842,14 +1860,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1859,11 +1877,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1875,14 +1893,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1892,11 +1910,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1908,7 +1926,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1925,11 +1943,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1941,14 +1959,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1958,14 +1976,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1974,14 +1992,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1991,11 +2009,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2007,14 +2025,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2024,11 +2042,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2040,7 +2058,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2057,11 +2075,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2073,14 +2091,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2090,11 +2108,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2106,14 +2124,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2123,11 +2141,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2139,14 +2157,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2156,11 +2174,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2172,14 +2190,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2189,49 +2207,82 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1378.22</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>124</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>125</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>126</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>127</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>60</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>19</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>128</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1424.05</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>130</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>131</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>132</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2420,10 +2471,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 2:09 PM</t>
+    <t>Saturday, 9 August, 2025 2:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>15.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
   </si>
   <si>
     <t>جل صبار للبشره</t>
@@ -1867,7 +1879,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,11 +1889,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1910,11 +1922,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1933,7 +1945,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1943,11 +1955,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1959,7 +1971,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1976,14 +1988,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1999,7 +2011,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2009,14 +2021,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2032,7 +2044,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2042,11 +2054,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2075,11 +2087,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2091,7 +2103,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2108,11 +2120,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2141,11 +2153,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2164,7 +2176,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2174,11 +2186,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2190,14 +2202,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2207,11 +2219,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2240,49 +2252,82 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1424.05</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>130</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>131</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>60</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>19</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>132</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1429.05</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>134</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>135</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>136</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2476,10 +2521,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -413,7 +422,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 2:17 PM</t>
+    <t>Saturday, 9 August, 2025 3:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1681,7 +1690,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1691,11 +1700,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1707,14 +1716,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1747,7 +1756,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1757,14 +1766,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1773,14 +1782,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1790,14 +1799,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1819,18 +1828,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1860,7 +1869,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1872,14 +1881,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1889,11 +1898,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1905,14 +1914,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1922,11 +1931,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1938,14 +1947,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1955,11 +1964,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1971,14 +1980,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1988,11 +1997,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2004,7 +2013,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2021,14 +2030,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2037,14 +2046,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2054,14 +2063,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2087,11 +2096,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2103,14 +2112,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2120,7 +2129,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2153,11 +2162,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2169,14 +2178,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2186,11 +2195,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2202,14 +2211,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2219,11 +2228,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2252,11 +2261,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2285,49 +2294,82 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1429.05</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>134</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>60</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>19</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>135</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>136</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1522.05</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>137</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>138</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>139</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2526,10 +2568,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>COLD FREE 20 TAB.</t>
   </si>
   <si>
@@ -422,7 +431,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 3:15 PM</t>
+    <t>Saturday, 9 August, 2025 3:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1245,7 +1254,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1261,24 +1270,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1287,20 +1296,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1311,7 +1320,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1327,7 +1336,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1360,7 +1369,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1393,7 +1402,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1426,7 +1435,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1436,14 +1445,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1452,14 +1461,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1492,7 +1501,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1502,14 +1511,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1518,14 +1527,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1535,11 +1544,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1551,31 +1560,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1584,31 +1593,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1624,7 +1633,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1657,7 +1666,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1667,14 +1676,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1707,7 +1716,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1723,7 +1732,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1733,11 +1742,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1789,7 +1798,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1799,14 +1808,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1832,14 +1841,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1861,18 +1870,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1902,7 +1911,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1931,11 +1940,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1964,11 +1973,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1997,11 +2006,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2030,11 +2039,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2063,14 +2072,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2129,11 +2138,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2162,7 +2171,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2185,7 +2194,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2195,11 +2204,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2228,11 +2237,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2261,11 +2270,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2294,11 +2303,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2327,49 +2336,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1522.05</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>137</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>63</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>19</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>138</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>139</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1538.05</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>140</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>141</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>142</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2573,10 +2615,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -119,6 +119,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -305,10 +308,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>16.8300</t>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>33.6600</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -368,10 +371,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شاور جل مود </t>
@@ -431,7 +431,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 3:17 PM</t>
+    <t>Saturday, 9 August, 2025 3:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1280,14 +1280,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1296,31 +1296,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1329,31 +1329,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1362,14 +1362,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1379,11 +1379,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1395,14 +1395,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1412,11 +1412,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1428,14 +1428,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1445,11 +1445,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1461,14 +1461,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1478,14 +1478,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1494,14 +1494,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1511,11 +1511,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1527,14 +1527,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1544,14 +1544,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1560,14 +1560,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1577,11 +1577,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1600,24 +1600,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1626,31 +1626,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1676,14 +1676,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1692,14 +1692,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1709,14 +1709,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1725,14 +1725,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1742,14 +1742,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1758,14 +1758,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1775,11 +1775,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1791,14 +1791,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1808,11 +1808,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1824,14 +1824,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1841,14 +1841,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1857,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1874,14 +1874,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1890,31 +1890,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1923,14 +1923,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1956,14 +1956,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1973,11 +1973,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1989,14 +1989,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2029,7 +2029,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2039,11 +2039,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2055,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,11 +2072,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2095,7 +2095,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,14 +2105,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,14 +2121,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2138,14 +2138,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,14 +2154,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2187,14 +2187,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2204,11 +2204,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2220,14 +2220,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2253,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2270,11 +2270,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2303,11 +2303,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2319,14 +2319,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2336,11 +2336,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2369,49 +2369,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>137</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>64</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>19</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>138</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>139</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1538.05</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1581.8800000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
         <v>140</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
         <v>141</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
         <v>142</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2620,10 +2653,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -431,7 +431,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 3:18 PM</t>
+    <t>Saturday, 9 August, 2025 3:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -362,6 +362,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
@@ -371,9 +383,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاور جل مود </t>
   </si>
   <si>
@@ -422,6 +431,9 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>معجون كلوز اب الصغير</t>
+  </si>
+  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
@@ -431,7 +443,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 3:29 PM</t>
+    <t>Saturday, 9 August, 2025 3:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2105,14 +2117,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,7 +2133,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2175,10 +2187,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2204,11 +2216,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2220,14 +2232,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2237,7 +2249,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2270,11 +2282,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2303,11 +2315,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2336,11 +2348,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2369,11 +2381,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2402,49 +2414,115 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1581.8800000000001</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>140</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>64</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>19</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>115</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>141</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>64</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>19</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>142</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1607.8800000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>144</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>145</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>146</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2658,10 +2736,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>BEBELAC 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
+  </si>
+  <si>
     <t>BUSCOPAN 20MG/ML 6 AMP.</t>
   </si>
   <si>
@@ -104,6 +113,9 @@
     <t>COLD CONTROL 20 TAB</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>32.00</t>
   </si>
   <si>
@@ -122,6 +134,18 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>DAPAGLIF 10MG 14 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>178.0000</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -134,9 +158,6 @@
     <t>DOZOVA FLEXETA 30 TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>290.00</t>
   </si>
   <si>
@@ -161,6 +182,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -239,6 +269,15 @@
     <t>4.8000</t>
   </si>
   <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
@@ -284,6 +323,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -308,9 +350,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -443,7 +482,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 3:43 PM</t>
+    <t>Saturday, 9 August, 2025 5:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1150,7 +1189,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1160,14 +1199,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1176,14 +1215,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1193,11 +1232,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1209,14 +1248,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1249,7 +1288,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1259,11 +1298,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1275,7 +1314,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1292,11 +1331,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1308,7 +1347,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1332,7 +1371,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1341,31 +1380,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1374,14 +1413,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1391,11 +1430,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1407,31 +1446,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1440,14 +1479,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,11 +1496,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1473,7 +1512,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1490,11 +1529,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1506,14 +1545,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1530,7 +1569,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1546,7 +1585,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1563,7 +1602,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1579,7 +1618,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1589,11 +1628,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1605,14 +1644,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1622,14 +1661,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1638,31 +1677,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1688,14 +1727,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1704,7 +1743,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1721,11 +1760,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1737,31 +1776,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1777,7 +1816,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1787,14 +1826,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1810,7 +1849,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1820,14 +1859,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1836,14 +1875,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1853,11 +1892,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1869,14 +1908,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1886,14 +1925,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1902,14 +1941,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1919,14 +1958,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1935,28 +1974,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1968,28 +2007,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2001,31 +2040,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2041,24 +2080,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,14 +2106,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2084,11 +2123,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2107,7 +2146,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2117,14 +2156,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2140,7 +2179,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2150,11 +2189,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2166,14 +2205,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2183,14 +2222,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,14 +2238,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2216,11 +2255,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2232,14 +2271,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2249,14 +2288,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2265,14 +2304,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2282,11 +2321,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2298,14 +2337,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2315,14 +2354,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2331,14 +2370,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2348,11 +2387,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2364,14 +2403,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2381,11 +2420,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2397,14 +2436,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2414,11 +2453,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2430,14 +2469,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2447,11 +2486,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2463,14 +2502,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2480,49 +2519,181 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1607.8800000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>144</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>145</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>146</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>151</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>148</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>19</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>119</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>152</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>100</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>19</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>75</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>153</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>74</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>19</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>128</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>154</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>74</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>19</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>155</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2325.8000000000002</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>157</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>158</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>159</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2746,10 +2917,30 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 5:01 PM</t>
+    <t>Saturday, 9 August, 2025 5:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>310.0000</t>
   </si>
   <si>
+    <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BUSCOPAN 20MG/ML 6 AMP.</t>
   </si>
   <si>
@@ -137,9 +149,6 @@
     <t>DAPAGLIF 10MG 14 F.C. TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>178.00</t>
   </si>
   <si>
@@ -230,6 +239,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -260,6 +278,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -422,18 +449,24 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاور جل مود </t>
   </si>
   <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -482,7 +515,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 5:07 PM</t>
+    <t>Saturday, 9 August, 2025 5:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1239,7 +1272,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1321,7 +1354,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1331,11 +1364,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1347,7 +1380,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1364,11 +1397,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1380,14 +1413,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1397,14 +1430,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1420,7 +1453,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1453,13 +1486,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1470,7 +1503,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1486,13 +1519,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1503,7 +1536,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1519,7 +1552,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1552,7 +1585,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1618,7 +1651,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1651,7 +1684,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1661,14 +1694,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1677,14 +1710,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1717,7 +1750,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1727,14 +1760,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1743,7 +1776,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1760,11 +1793,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1776,31 +1809,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1816,7 +1849,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1826,14 +1859,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1842,31 +1875,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1882,7 +1915,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1925,14 +1958,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1941,14 +1974,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1958,14 +1991,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1974,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1991,11 +2024,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2007,14 +2040,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2024,14 +2057,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2040,14 +2073,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2057,14 +2090,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2073,14 +2106,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2090,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2106,28 +2139,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2139,31 +2172,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2179,24 +2212,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2205,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2222,11 +2255,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2278,7 +2311,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2288,14 +2321,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2311,7 +2344,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2321,11 +2354,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2344,7 +2377,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2354,14 +2387,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2370,14 +2403,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2387,14 +2420,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2403,14 +2436,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2420,11 +2453,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2436,14 +2469,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2453,14 +2486,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2476,7 +2509,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2486,11 +2519,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2509,7 +2542,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2519,11 +2552,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2535,14 +2568,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2552,11 +2585,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2575,7 +2608,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2585,11 +2618,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2601,14 +2634,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2618,11 +2651,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2634,14 +2667,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2651,49 +2684,214 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2325.8000000000002</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>157</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>158</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>159</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>19</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>160</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>162</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>159</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>19</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>128</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>163</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>109</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>19</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>81</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>164</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>80</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>19</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>137</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>165</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>80</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>19</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>166</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2676.8000000000002</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>168</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>169</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>170</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2937,10 +3135,35 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>BEBELAC 1 MILK 400 GM</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
@@ -305,6 +314,12 @@
     <t>37.9200</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
@@ -437,9 +452,6 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
@@ -515,7 +527,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 5:25 PM</t>
+    <t>Saturday, 9 August, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1222,7 +1234,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1232,11 +1244,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1248,14 +1260,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1288,7 +1300,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1298,14 +1310,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1314,14 +1326,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1331,11 +1343,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1347,14 +1359,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1364,11 +1376,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1380,14 +1392,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1430,11 +1442,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1446,14 +1458,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1463,14 +1475,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1486,7 +1498,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1519,13 +1531,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1536,7 +1548,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1552,13 +1564,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1569,7 +1581,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1585,7 +1597,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1618,7 +1630,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1684,7 +1696,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1717,7 +1729,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1727,14 +1739,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1743,14 +1755,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1800,7 +1812,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1816,7 +1828,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1826,11 +1838,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1842,14 +1854,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1859,11 +1871,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1875,31 +1887,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1908,31 +1920,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1948,7 +1960,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1958,14 +1970,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1981,7 +1993,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,7 +2003,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2014,7 +2026,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2031,7 +2043,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2057,14 +2069,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2073,14 +2085,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2090,11 +2102,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2106,14 +2118,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2123,14 +2135,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2139,14 +2151,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2156,11 +2168,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2172,14 +2184,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,14 +2201,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2205,14 +2217,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2222,14 +2234,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2238,31 +2250,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2278,24 +2290,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2304,14 +2316,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2321,11 +2333,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2337,14 +2349,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2354,11 +2366,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2410,7 +2422,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2453,11 +2465,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2476,7 +2488,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2490,7 +2502,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>102</v>
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2519,11 +2531,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2535,14 +2547,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2552,14 +2564,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2575,7 +2587,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2585,11 +2597,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2601,14 +2613,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2618,7 +2630,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2641,7 +2653,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2651,11 +2663,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2684,11 +2696,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2707,7 +2719,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2717,11 +2729,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2750,11 +2762,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2783,11 +2795,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2816,11 +2828,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2849,49 +2861,115 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2676.8000000000002</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>168</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>83</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>19</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>142</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>169</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>83</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>19</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>170</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2828.8000000000002</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>172</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>173</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>174</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3160,10 +3238,20 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -395,6 +395,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -527,7 +536,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 5:28 PM</t>
+    <t>Saturday, 9 August, 2025 5:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2323,21 +2332,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2370,7 +2379,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2399,11 +2408,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2465,11 +2474,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2505,7 +2514,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2547,7 +2556,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2630,11 +2639,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2653,7 +2662,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2663,11 +2672,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2679,14 +2688,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2696,11 +2705,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2729,7 +2738,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2762,11 +2771,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2795,11 +2804,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2828,11 +2837,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2844,14 +2853,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2861,11 +2870,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2894,11 +2903,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2910,7 +2919,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2927,49 +2936,82 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2828.8000000000002</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>172</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>83</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>19</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>173</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>174</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2894.8000000000002</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>175</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>176</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>177</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3248,10 +3290,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -402,6 +402,12 @@
   </si>
   <si>
     <t>66.0000</t>
+  </si>
+  <si>
+    <t>WESTABREATH 500 MCG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>212.00</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -2365,24 +2371,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2391,14 +2397,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2408,11 +2414,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2424,14 +2430,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2441,11 +2447,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2457,14 +2463,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2474,11 +2480,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2490,14 +2496,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2507,11 +2513,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2523,14 +2529,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2540,14 +2546,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2556,7 +2562,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2573,14 +2579,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2589,7 +2595,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2606,14 +2612,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2629,7 +2635,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2639,14 +2645,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2655,14 +2661,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2672,11 +2678,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2688,14 +2694,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2705,11 +2711,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2728,7 +2734,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2738,11 +2744,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2761,7 +2767,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2771,11 +2777,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2787,7 +2793,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2804,11 +2810,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2820,14 +2826,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2837,11 +2843,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2853,14 +2859,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2870,11 +2876,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2886,14 +2892,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2903,11 +2909,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2919,14 +2925,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2936,11 +2942,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2952,7 +2958,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -2969,49 +2975,82 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>174</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2894.8000000000002</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>83</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>19</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>175</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>176</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3000.8000000000002</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
         <v>177</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>178</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>179</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3295,10 +3334,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -542,7 +542,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 5:35 PM</t>
+    <t>Saturday, 9 August, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -467,6 +467,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
@@ -542,7 +551,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 5:52 PM</t>
+    <t>Saturday, 9 August, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,7 +2611,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2612,11 +2621,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2628,7 +2637,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2678,14 +2687,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2711,11 +2720,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2734,7 +2743,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2744,11 +2753,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2777,11 +2786,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2810,7 +2819,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2843,11 +2852,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2909,11 +2918,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2942,11 +2951,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2975,11 +2984,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -2991,7 +3000,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3008,49 +3017,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3000.8000000000002</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>177</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>83</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>19</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>178</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>179</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3045.8000000000002</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>180</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>181</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>182</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3339,10 +3381,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>OPHILOCOND 0.1% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -267,6 +276,9 @@
   </si>
   <si>
     <t>24.0000</t>
+  </si>
+  <si>
+    <t>ORCHADEXOLINE EYE DROPS 5 ML</t>
   </si>
   <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
@@ -1885,7 +1897,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1895,11 +1907,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1928,11 +1940,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1944,31 +1956,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1994,11 +2006,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2010,31 +2022,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2060,14 +2072,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2093,14 +2105,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2109,14 +2121,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,14 +2138,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2142,14 +2154,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2159,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2175,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2192,11 +2204,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2208,14 +2220,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,14 +2237,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2241,14 +2253,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2258,11 +2270,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2274,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2307,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,14 +2336,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2340,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,14 +2369,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2373,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2390,14 +2402,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2406,28 +2418,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2439,31 +2451,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2472,14 +2484,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2489,11 +2501,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2505,14 +2517,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2522,11 +2534,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2538,14 +2550,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2555,11 +2567,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2588,14 +2600,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2621,11 +2633,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2637,7 +2649,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2677,7 +2689,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2691,10 +2703,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2720,11 +2732,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2736,7 +2748,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2753,14 +2765,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2776,7 +2788,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2786,11 +2798,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2819,7 +2831,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2842,7 +2854,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2852,11 +2864,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2868,14 +2880,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2885,11 +2897,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2908,7 +2920,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2918,11 +2930,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2951,11 +2963,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2967,14 +2979,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2984,11 +2996,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3017,11 +3029,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3050,49 +3062,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3045.8000000000002</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>180</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>86</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>19</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>151</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>181</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>86</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>19</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>182</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3095.3000000000002</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>184</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>185</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>186</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3386,10 +3464,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AGIOLAX 12 GRANULES IN SACHETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -80,9 +92,6 @@
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>124.00</t>
   </si>
   <si>
@@ -155,6 +164,15 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>DAPAGLIF 10MG 14 F.C. TABS</t>
   </si>
   <si>
@@ -227,6 +245,15 @@
     <t>73.0000</t>
   </si>
   <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -422,6 +449,15 @@
     <t>212.00</t>
   </si>
   <si>
+    <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -563,7 +599,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 5:58 PM</t>
+    <t>Saturday, 9 August, 2025 6:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1237,24 +1273,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1263,20 +1299,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1287,7 +1323,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1320,7 +1356,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1336,7 +1372,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1353,7 +1389,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1369,7 +1405,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1379,11 +1415,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1395,14 +1431,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1412,14 +1448,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1428,14 +1464,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1445,14 +1481,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1461,14 +1497,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1485,7 +1521,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1501,7 +1537,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1511,14 +1547,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1527,14 +1563,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1544,14 +1580,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1567,7 +1603,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1584,7 +1620,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1600,13 +1636,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1633,7 +1669,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1650,7 +1686,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1672,7 +1708,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1683,7 +1719,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1699,7 +1735,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1716,7 +1752,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1749,7 +1785,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1765,7 +1801,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1782,7 +1818,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1798,7 +1834,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1808,11 +1844,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1824,14 +1860,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1841,11 +1877,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1857,7 +1893,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1870,18 +1906,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1890,14 +1926,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1914,7 +1950,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1930,7 +1966,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1940,14 +1976,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1956,14 +1992,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1973,14 +2009,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1989,7 +2025,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2006,14 +2042,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2022,31 +2058,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2055,14 +2091,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2072,14 +2108,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2095,7 +2131,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2105,11 +2141,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2121,31 +2157,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2161,7 +2197,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,14 +2207,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2187,14 +2223,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2204,14 +2240,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2220,14 +2256,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2244,7 +2280,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2260,7 +2296,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,14 +2306,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2286,14 +2322,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2303,14 +2339,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2319,14 +2355,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,11 +2372,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2352,14 +2388,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,14 +2405,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,14 +2421,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,14 +2438,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2418,14 +2454,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2435,14 +2471,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2451,14 +2487,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2472,10 +2508,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,31 +2520,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,20 +2553,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2541,7 +2577,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2557,24 +2593,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2583,31 +2619,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2629,7 +2665,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2637,10 +2673,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2649,20 +2685,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2673,7 +2709,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2689,24 +2725,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,31 +2751,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2748,31 +2784,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,31 +2817,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,31 +2850,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,31 +2883,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,31 +2916,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2913,31 +2949,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2946,31 +2982,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2979,20 +3015,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3003,7 +3039,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3012,31 +3048,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3045,31 +3081,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3078,31 +3114,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3111,66 +3147,198 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3095.3000000000002</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>184</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>185</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>186</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>190</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>187</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>23</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>154</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>191</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>127</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>23</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>96</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>192</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>95</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>23</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>163</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>193</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>95</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>23</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>194</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3430.2399999999998</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>196</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>197</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>198</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3474,10 +3642,30 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -209,6 +218,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>GELOGAR DROPS 15ML</t>
   </si>
   <si>
@@ -458,6 +476,9 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>ZYMAGALLIN 30 TAB</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -599,7 +620,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 6:00 PM</t>
+    <t>Saturday, 9 August, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1570,7 +1591,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1580,11 +1601,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1596,14 +1617,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1613,11 +1634,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1636,7 +1657,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1653,7 +1674,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1669,7 +1690,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1702,13 +1723,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1719,7 +1740,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1741,7 +1762,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1752,7 +1773,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1768,7 +1789,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1801,7 +1822,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1818,7 +1839,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1834,7 +1855,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1867,7 +1888,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1900,13 +1921,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1933,7 +1954,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1943,14 +1964,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1959,31 +1980,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1992,14 +2013,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2016,7 +2037,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2032,7 +2053,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2049,7 +2070,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2065,7 +2086,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2075,11 +2096,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2091,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2108,11 +2129,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2141,11 +2162,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2157,31 +2178,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2197,7 +2218,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2207,11 +2228,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2223,31 +2244,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2263,7 +2284,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2280,7 +2301,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2306,14 +2327,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2322,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2339,14 +2360,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2355,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2372,14 +2393,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2388,14 +2409,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2405,11 +2426,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2421,14 +2442,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2438,14 +2459,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2454,14 +2475,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2471,11 +2492,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2487,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2504,14 +2525,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2520,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2537,14 +2558,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2553,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2577,7 +2598,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2586,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2603,14 +2624,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2619,14 +2640,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2636,14 +2657,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2652,20 +2673,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2673,10 +2694,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2692,24 +2713,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2718,31 +2739,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2768,7 +2789,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2801,11 +2822,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2834,14 +2855,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2867,11 +2888,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2900,11 +2921,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2937,10 +2958,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2949,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2966,11 +2987,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2982,7 +3003,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2999,11 +3020,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3015,14 +3036,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3032,14 +3053,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3065,11 +3086,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3121,7 +3142,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3131,11 +3152,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3147,14 +3168,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3164,11 +3185,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3180,14 +3201,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3197,11 +3218,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3230,11 +3251,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3246,14 +3267,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3263,11 +3284,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3279,14 +3300,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3296,49 +3317,148 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3430.2399999999998</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>196</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>197</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>198</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>133</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>23</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>102</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>199</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>101</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>23</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>170</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>200</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>101</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>23</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>201</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3560.73</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>203</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>204</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>205</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3662,10 +3782,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 6:07 PM</t>
+    <t>Saturday, 9 August, 2025 6:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 6:09 PM</t>
+    <t>Saturday, 9 August, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>19.8000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -107,6 +119,21 @@
     <t>310.0000</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
   </si>
   <si>
@@ -341,7 +368,13 @@
     <t>54.0000</t>
   </si>
   <si>
-    <t>0:2</t>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
   </si>
   <si>
     <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
@@ -371,6 +404,18 @@
     <t>37.9200</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -383,9 +428,6 @@
     <t>52.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -422,9 +464,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -443,9 +482,6 @@
     <t>58.0800</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -552,6 +588,12 @@
   </si>
   <si>
     <t>2.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سلاكه اسنان بلاستك</t>
@@ -1294,7 +1336,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1304,14 +1346,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1320,31 +1362,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1353,31 +1395,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1386,14 +1428,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1403,11 +1445,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1419,14 +1461,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1436,11 +1478,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1452,14 +1494,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1469,14 +1511,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,14 +1527,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1502,14 +1544,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1518,14 +1560,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1535,14 +1577,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1551,14 +1593,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1568,14 +1610,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1584,14 +1626,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1601,14 +1643,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1617,14 +1659,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1634,14 +1676,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1650,14 +1692,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1667,14 +1709,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1683,14 +1725,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1700,14 +1742,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1716,14 +1758,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1733,14 +1775,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1749,7 +1791,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1762,18 +1804,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1782,14 +1824,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1799,11 +1841,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1815,31 +1857,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,14 +1890,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1865,11 +1907,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1881,14 +1923,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1898,14 +1940,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1914,14 +1956,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,11 +1973,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1947,14 +1989,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,11 +2006,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1980,28 +2022,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2013,14 +2055,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,14 +2072,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2046,31 +2088,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2079,14 +2121,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,14 +2138,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2112,14 +2154,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2129,14 +2171,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2145,14 +2187,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,11 +2204,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2178,14 +2220,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,11 +2237,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2211,14 +2253,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2228,11 +2270,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2244,31 +2286,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2277,14 +2319,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2294,11 +2336,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2310,31 +2352,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2385,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,14 +2402,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2376,14 +2418,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,11 +2435,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2409,14 +2451,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,14 +2468,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,7 +2484,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2459,14 +2501,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2475,14 +2517,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,11 +2534,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2508,14 +2550,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,11 +2567,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2541,14 +2583,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2562,7 +2604,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2574,14 +2616,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2633,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2649,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,14 +2666,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,14 +2682,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2680,7 +2722,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2694,10 +2736,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2706,14 +2748,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2765,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,14 +2781,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2798,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,28 +2814,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2805,31 +2847,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,20 +2880,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2862,7 +2904,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2878,24 +2920,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2917,7 +2959,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2925,7 +2967,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2937,20 +2979,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2961,7 +3003,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2977,21 +3019,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3003,28 +3045,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3036,31 +3078,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,31 +3111,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,28 +3144,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3135,28 +3177,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3168,31 +3210,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3201,28 +3243,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3234,7 +3276,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3247,15 +3289,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3267,28 +3309,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3300,28 +3342,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3333,28 +3375,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3366,28 +3408,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3399,66 +3441,198 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3560.73</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>203</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>204</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>205</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>211</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>208</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>27</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>173</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>212</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>147</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>27</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>111</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>213</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>110</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>27</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>182</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>214</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>110</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>27</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>215</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3717.96</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>217</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>218</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>219</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3797,10 +3971,30 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -158,9 +170,6 @@
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -218,6 +227,18 @@
     <t>178.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -590,12 +611,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -662,7 +677,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 6:11 PM</t>
+    <t>Saturday, 9 August, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,7 +1450,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1445,14 +1460,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1461,14 +1476,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1478,11 +1493,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1494,14 +1509,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1518,7 +1533,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1527,14 +1542,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1551,7 +1566,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1560,14 +1575,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1584,7 +1599,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1633,7 +1648,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1643,11 +1658,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1659,14 +1674,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1699,7 +1714,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1732,7 +1747,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1742,11 +1757,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1775,11 +1790,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1798,7 +1813,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1815,7 +1830,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1831,7 +1846,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1864,24 +1879,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1890,14 +1905,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1907,11 +1922,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1923,28 +1938,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1956,14 +1971,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1973,11 +1988,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2006,14 +2021,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2022,14 +2037,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2039,11 +2054,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2072,11 +2087,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2088,28 +2103,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2121,14 +2136,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2145,7 +2160,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2161,13 +2176,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2178,7 +2193,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2194,7 +2209,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2204,14 +2219,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2237,14 +2252,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2253,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2293,7 +2308,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2303,11 +2318,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2319,14 +2334,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2336,11 +2351,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2352,31 +2367,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2402,14 +2417,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2425,24 +2440,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2451,14 +2466,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2468,11 +2483,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2484,14 +2499,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2501,14 +2516,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2517,14 +2532,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2534,14 +2549,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2557,7 +2572,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2567,14 +2582,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2583,14 +2598,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2600,11 +2615,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2616,14 +2631,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2633,14 +2648,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2649,14 +2664,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2666,11 +2681,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2706,7 +2721,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2722,7 +2737,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2772,7 +2787,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2788,7 +2803,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2798,14 +2813,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2814,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2831,14 +2846,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2847,14 +2862,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2864,14 +2879,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2880,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2897,14 +2912,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2913,7 +2928,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2930,11 +2945,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2946,31 +2961,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2979,31 +2994,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3033,7 +3048,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3045,14 +3060,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3062,11 +3077,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3078,14 +3093,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3095,11 +3110,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3111,14 +3126,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3128,14 +3143,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3151,7 +3166,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3161,11 +3176,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3177,7 +3192,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3194,14 +3209,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3210,14 +3225,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3227,14 +3242,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3243,14 +3258,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3260,11 +3275,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3276,7 +3291,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3293,14 +3308,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3309,14 +3324,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3326,11 +3341,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3349,7 +3364,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3359,11 +3374,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3375,14 +3390,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3392,11 +3407,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3415,7 +3430,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3425,11 +3440,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3441,14 +3456,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3481,7 +3496,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3491,11 +3506,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3514,7 +3529,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3524,11 +3539,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3540,14 +3555,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3557,11 +3572,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3573,14 +3588,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3590,49 +3605,115 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3717.96</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>217</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>218</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>117</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>27</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>189</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>219</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>117</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>27</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>220</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3864.96</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>222</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>223</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>224</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3991,10 +4072,20 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -605,6 +605,9 @@
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -632,7 +635,7 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>50.0000</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>فازلين هير تونك 200مل</t>
@@ -647,6 +650,15 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>كريم فريند لافلي الكبير</t>
   </si>
   <si>
@@ -677,7 +689,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 6:14 PM</t>
+    <t>Saturday, 9 August, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3308,14 +3320,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3324,14 +3336,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,14 +3353,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3364,7 +3376,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3374,11 +3386,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3390,14 +3402,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3407,11 +3419,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3423,14 +3435,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3440,11 +3452,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3456,14 +3468,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3473,14 +3485,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3489,7 +3501,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3506,11 +3518,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3529,7 +3541,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3539,11 +3551,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3555,14 +3567,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3572,11 +3584,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3588,14 +3600,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3605,11 +3617,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3621,14 +3633,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3638,11 +3650,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3654,14 +3666,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3671,49 +3683,115 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3864.96</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>222</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>117</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>27</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>189</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>223</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>117</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>27</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>224</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4004.96</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>226</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>227</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>228</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4082,10 +4160,20 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -209,6 +221,9 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -239,6 +254,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -365,9 +389,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -416,6 +437,15 @@
     <t>4.8000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -440,9 +470,6 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
@@ -452,9 +479,6 @@
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -506,7 +530,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>50.4900</t>
   </si>
   <si>
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
@@ -590,7 +617,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>حنه جلوري سوده 1 كيس</t>
@@ -614,6 +641,18 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -629,9 +668,6 @@
     <t xml:space="preserve">شاور جل مود </t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -647,6 +683,9 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>فرش اسنان اورل فريش</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -674,6 +713,15 @@
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -689,7 +737,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 6:15 PM</t>
+    <t>Saturday, 9 August, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1396,7 +1444,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1413,7 +1461,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1422,28 +1470,28 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1455,20 +1503,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1495,7 +1543,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1505,14 +1553,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1521,14 +1569,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1538,11 +1586,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1554,14 +1602,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1578,7 +1626,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1587,14 +1635,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1611,7 +1659,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1620,14 +1668,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1644,7 +1692,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1660,7 +1708,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1670,11 +1718,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1686,14 +1734,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1726,7 +1774,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1736,11 +1784,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1752,14 +1800,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1769,11 +1817,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1785,14 +1833,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1802,11 +1850,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1818,14 +1866,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1835,14 +1883,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1851,14 +1899,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1868,14 +1916,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1884,14 +1932,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1901,11 +1949,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1917,14 +1965,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1934,11 +1982,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1950,28 +1998,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1983,14 +2031,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,11 +2048,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2016,28 +2064,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2049,14 +2097,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,11 +2114,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2082,14 +2130,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2099,14 +2147,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2115,14 +2163,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2132,11 +2180,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2148,14 +2196,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2165,11 +2213,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2181,28 +2229,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2214,14 +2262,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2231,14 +2279,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2247,31 +2295,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2280,14 +2328,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2297,14 +2345,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2313,14 +2361,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2330,14 +2378,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2346,14 +2394,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2363,11 +2411,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2379,14 +2427,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2396,11 +2444,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2412,14 +2460,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2429,11 +2477,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2445,31 +2493,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2478,14 +2526,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,14 +2543,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2518,24 +2566,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2544,14 +2592,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2561,11 +2609,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2577,14 +2625,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2594,14 +2642,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2610,14 +2658,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2627,14 +2675,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2660,14 +2708,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2676,14 +2724,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2693,14 +2741,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2709,14 +2757,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2726,14 +2774,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2742,14 +2790,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2759,11 +2807,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2782,7 +2830,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,11 +2840,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2808,14 +2856,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,14 +2873,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2841,14 +2889,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,14 +2906,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2874,14 +2922,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,14 +2939,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2907,14 +2955,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,11 +2972,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2940,14 +2988,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2961,10 +3009,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2973,14 +3021,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,14 +3038,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3006,14 +3054,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,14 +3071,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3039,31 +3087,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,31 +3120,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3105,31 +3153,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,28 +3186,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3184,7 +3232,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3211,24 +3259,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3237,28 +3285,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3270,28 +3318,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3303,7 +3351,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3316,18 +3364,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3336,31 +3384,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3369,28 +3417,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3402,7 +3450,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3415,15 +3463,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3435,31 +3483,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,31 +3516,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3501,28 +3549,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3534,7 +3582,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3547,15 +3595,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3567,28 +3615,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3600,31 +3648,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3633,28 +3681,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3666,28 +3714,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3699,20 +3747,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3732,66 +3780,264 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4004.96</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>226</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>227</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>228</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>229</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>230</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>31</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>231</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>233</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>230</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>31</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>189</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>234</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>12</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>31</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>235</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>237</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>162</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>31</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>23</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>238</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>125</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>31</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>198</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>239</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>125</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>31</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>240</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4144.3900000000003</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>242</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>243</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>244</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4170,10 +4416,40 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -191,13 +191,10 @@
     <t>COLD CONTROL 20 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>32.0000</t>
   </si>
   <si>
     <t>COLD FREE 20 TAB.</t>
@@ -1774,7 +1771,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1784,14 +1781,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1800,7 +1797,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1817,11 +1814,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1833,7 +1830,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1850,11 +1847,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1866,7 +1863,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1883,11 +1880,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1899,7 +1896,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1916,11 +1913,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1932,7 +1929,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1949,11 +1946,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1965,14 +1962,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1982,11 +1979,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1998,14 +1995,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2015,11 +2012,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2031,7 +2028,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2048,11 +2045,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2064,7 +2061,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2081,11 +2078,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2097,7 +2094,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2114,11 +2111,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2130,7 +2127,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2147,11 +2144,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2163,7 +2160,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2180,11 +2177,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2196,7 +2193,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2213,11 +2210,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2229,7 +2226,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2246,11 +2243,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2262,7 +2259,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2279,11 +2276,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2295,7 +2292,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2312,11 +2309,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2328,14 +2325,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2345,11 +2342,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2361,7 +2358,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2378,11 +2375,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2394,7 +2391,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2411,11 +2408,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2427,7 +2424,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2444,11 +2441,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2460,14 +2457,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2481,7 +2478,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2493,7 +2490,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2526,7 +2523,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2547,7 +2544,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2559,14 +2556,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2576,11 +2573,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2592,7 +2589,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2609,11 +2606,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2625,7 +2622,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2642,11 +2639,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2658,14 +2655,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2679,7 +2676,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2691,14 +2688,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2712,7 +2709,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2724,14 +2721,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2741,11 +2738,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2757,14 +2754,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2774,11 +2771,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2790,7 +2787,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2807,11 +2804,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2823,7 +2820,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2840,11 +2837,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2856,14 +2853,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2873,11 +2870,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2889,7 +2886,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2906,11 +2903,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2922,14 +2919,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2939,11 +2936,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2955,14 +2952,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2972,11 +2969,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2988,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3005,11 +3002,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>48</v>
@@ -3021,14 +3018,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3042,10 +3039,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3054,7 +3051,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3071,11 +3068,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3087,7 +3084,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3104,11 +3101,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3120,7 +3117,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3137,11 +3134,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3153,7 +3150,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3170,11 +3167,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3186,14 +3183,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3203,11 +3200,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3219,14 +3216,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3236,11 +3233,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3252,14 +3249,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3269,11 +3266,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3285,14 +3282,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3302,11 +3299,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3318,14 +3315,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,11 +3332,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3351,7 +3348,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3368,14 +3365,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3384,7 +3381,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3401,11 +3398,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3417,7 +3414,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3434,11 +3431,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3450,7 +3447,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3467,11 +3464,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3483,7 +3480,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3500,14 +3497,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>210</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3516,7 +3513,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3533,11 +3530,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3549,14 +3546,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3566,11 +3563,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3582,7 +3579,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3599,11 +3596,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3615,14 +3612,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3632,11 +3629,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3648,14 +3645,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3665,7 +3662,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3681,7 +3678,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3698,11 +3695,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3714,14 +3711,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3731,11 +3728,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3747,7 +3744,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3764,11 +3761,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3780,7 +3777,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3797,11 +3794,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3813,14 +3810,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3830,11 +3827,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3846,14 +3843,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3863,11 +3860,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3879,7 +3876,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3896,11 +3893,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3912,14 +3909,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3933,7 +3930,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3945,14 +3942,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3962,11 +3959,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3978,14 +3975,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3995,11 +3992,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4007,13 +4004,13 @@
     </row>
     <row r="87" ht="25.5" customHeight="1">
       <c r="P87" s="13">
-        <v>4144.3900000000003</v>
+        <v>4160.3900000000003</v>
       </c>
       <c r="Q87" s="13"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c t="s" r="A88" s="14">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -4021,13 +4018,13 @@
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c t="s" r="G88" s="15">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="16"/>
       <c t="s" r="K88" s="17">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -734,7 +734,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 6:54 PM</t>
+    <t>Saturday, 9 August, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -398,13 +398,10 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
-    <t>54.0000</t>
+    <t>135.0000</t>
   </si>
   <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
@@ -425,6 +422,9 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -491,6 +491,15 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -527,10 +536,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>50.4900</t>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>67.3200</t>
   </si>
   <si>
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
@@ -554,9 +563,6 @@
     <t>204.00</t>
   </si>
   <si>
-    <t>67.3200</t>
-  </si>
-  <si>
     <t>ZYMAGALLIN 30 TAB</t>
   </si>
   <si>
@@ -638,33 +644,33 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاور جل مود </t>
   </si>
   <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سلاكه اسنان بلاستك</t>
-  </si>
-  <si>
-    <t>شامبو كلير للرجال 180مل</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاور جل مود </t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -734,7 +740,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 7:00 PM</t>
+    <t>Saturday, 9 August, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2563,7 +2569,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2573,14 +2579,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2589,7 +2595,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2606,11 +2612,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2622,7 +2628,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2639,11 +2645,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2655,14 +2661,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2672,14 +2678,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2688,14 +2694,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2705,11 +2711,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2721,14 +2727,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2738,11 +2744,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2754,14 +2760,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2771,14 +2777,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2787,14 +2793,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2804,11 +2810,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2820,14 +2826,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2837,11 +2843,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2853,14 +2859,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2870,14 +2876,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2886,14 +2892,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2903,14 +2909,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2919,14 +2925,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2936,11 +2942,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2952,14 +2958,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2969,11 +2975,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2985,14 +2991,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3002,14 +3008,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3018,14 +3024,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3035,14 +3041,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3051,14 +3057,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3068,14 +3074,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3084,14 +3090,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3101,14 +3107,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3117,14 +3123,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3134,14 +3140,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3150,7 +3156,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3167,11 +3173,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3183,31 +3189,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3216,31 +3222,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3249,14 +3255,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3266,11 +3272,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3282,14 +3288,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3299,11 +3305,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3315,14 +3321,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,11 +3338,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3348,14 +3354,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3365,14 +3371,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3381,14 +3387,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3398,11 +3404,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3414,7 +3420,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3431,14 +3437,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3447,14 +3453,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3464,11 +3470,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3497,14 +3503,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>210</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3513,7 +3519,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3530,11 +3536,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3546,14 +3552,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3563,14 +3569,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3579,7 +3585,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3596,11 +3602,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3612,14 +3618,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3629,11 +3635,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3645,14 +3651,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3662,14 +3668,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3678,14 +3684,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3695,11 +3701,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3711,14 +3717,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3728,14 +3734,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3744,7 +3750,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3761,11 +3767,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3784,7 +3790,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3794,11 +3800,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3810,14 +3816,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3827,11 +3833,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3843,14 +3849,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3860,11 +3866,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3876,14 +3882,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3893,11 +3899,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3909,14 +3915,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3926,11 +3932,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3942,14 +3948,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3959,11 +3965,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3982,7 +3988,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3992,49 +3998,115 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>239</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>124</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>31</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>199</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>240</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4160.3900000000003</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>124</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>31</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>241</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>242</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4332.2200000000003</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>243</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>244</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>245</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4443,10 +4515,20 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -149,12 +161,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
@@ -443,6 +449,15 @@
     <t>6.7200</t>
   </si>
   <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -740,7 +755,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 7:17 PM</t>
+    <t>Saturday, 9 August, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1579,7 +1594,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1589,14 +1604,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1605,14 +1620,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1622,11 +1637,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1662,7 +1677,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1671,14 +1686,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1688,14 +1703,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1721,14 +1736,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1754,11 +1769,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1770,14 +1785,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1787,14 +1802,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1803,14 +1818,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1820,14 +1835,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1836,14 +1851,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1853,11 +1868,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1886,14 +1901,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1909,7 +1924,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1952,14 +1967,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1968,14 +1983,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1985,11 +2000,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2034,14 +2049,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2067,31 +2082,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2100,7 +2115,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2113,18 +2128,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2133,14 +2148,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2150,14 +2165,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2216,11 +2231,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2232,7 +2247,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2249,11 +2264,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2282,11 +2297,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2298,28 +2313,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2331,31 +2346,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2381,11 +2396,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2397,7 +2412,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2414,14 +2429,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2447,11 +2462,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2480,11 +2495,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2513,11 +2528,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2529,7 +2544,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2546,11 +2561,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2562,31 +2577,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2595,31 +2610,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2678,11 +2693,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2744,11 +2759,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2777,11 +2792,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2843,14 +2858,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2866,7 +2881,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2876,11 +2891,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2909,14 +2924,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2932,7 +2947,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2946,7 +2961,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3041,11 +3056,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3173,14 +3188,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3196,7 +3211,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3210,10 +3225,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3222,7 +3237,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3239,11 +3254,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3255,31 +3270,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3288,31 +3303,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3338,11 +3353,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3371,11 +3386,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3427,7 +3442,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3453,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3470,11 +3485,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3486,7 +3501,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3503,14 +3518,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3536,11 +3551,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3552,7 +3567,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3569,14 +3584,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3585,7 +3600,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3602,11 +3617,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3625,7 +3640,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3651,7 +3666,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3668,11 +3683,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3701,11 +3716,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3724,7 +3739,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3767,11 +3782,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3790,7 +3805,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3800,14 +3815,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3816,7 +3831,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3833,11 +3848,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3866,11 +3881,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3882,14 +3897,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3899,11 +3914,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3915,14 +3930,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3932,11 +3947,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3955,7 +3970,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3965,11 +3980,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3981,14 +3996,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3998,11 +4013,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4014,14 +4029,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4031,11 +4046,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4047,14 +4062,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4064,49 +4079,115 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>23</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4332.2200000000003</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>243</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>244</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>126</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>31</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>204</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>245</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>126</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>31</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>246</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4404.8199999999997</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>248</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>249</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>250</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4525,10 +4606,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -266,6 +275,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>2.1000</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -473,9 +494,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>21.00</t>
-  </si>
-  <si>
     <t>21.0000</t>
   </si>
   <si>
@@ -521,12 +539,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -635,7 +647,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>حنه جلوري سوده 1 كيس</t>
@@ -755,7 +767,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 7:18 PM</t>
+    <t>Saturday, 9 August, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1446,7 +1458,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1455,14 +1467,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1495,7 +1507,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1512,7 +1524,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1528,24 +1540,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1554,31 +1566,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1587,14 +1599,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1604,14 +1616,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1620,14 +1632,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1644,7 +1656,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1660,7 +1672,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1693,7 +1705,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1703,14 +1715,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1726,7 +1738,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1736,14 +1748,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1759,7 +1771,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1769,14 +1781,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1785,14 +1797,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1809,7 +1821,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1825,7 +1837,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1842,7 +1854,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1858,7 +1870,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1875,7 +1887,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1891,7 +1903,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1908,7 +1920,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1924,7 +1936,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1934,14 +1946,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1950,14 +1962,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1967,14 +1979,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1990,7 +2002,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2007,7 +2019,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2023,7 +2035,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2033,11 +2045,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2049,14 +2061,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2066,14 +2078,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2089,7 +2101,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2099,14 +2111,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2122,24 +2134,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2148,14 +2160,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,11 +2177,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2181,31 +2193,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2214,14 +2226,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2231,11 +2243,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2247,14 +2259,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2264,14 +2276,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2297,11 +2309,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2313,14 +2325,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,11 +2342,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2346,28 +2358,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2403,7 +2415,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2419,13 +2431,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2436,7 +2448,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2452,7 +2464,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2474,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2478,14 +2490,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2511,14 +2523,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2528,11 +2540,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2544,14 +2556,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,11 +2573,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2594,11 +2606,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2610,31 +2622,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,14 +2672,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2676,7 +2688,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2689,18 +2701,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2709,14 +2721,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,14 +2804,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,14 +2837,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,14 +2853,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2858,14 +2870,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2874,14 +2886,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2914,7 +2926,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2924,14 +2936,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2957,11 +2969,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3023,11 +3035,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3046,7 +3058,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3063,7 +3075,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3079,7 +3091,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,11 +3101,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,11 +3134,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,14 +3167,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3171,14 +3183,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,14 +3200,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,14 +3233,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3310,7 +3322,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3336,20 +3348,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3357,10 +3369,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3376,24 +3388,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3402,28 +3414,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3435,28 +3447,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3468,28 +3480,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3501,31 +3513,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3534,28 +3546,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3567,7 +3579,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3580,18 +3592,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3607,21 +3619,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3633,7 +3645,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3646,18 +3658,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3679,15 +3691,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3699,31 +3711,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3732,7 +3744,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3745,11 +3757,11 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3772,21 +3784,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3798,31 +3810,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3838,21 +3850,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3864,31 +3876,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3910,15 +3922,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3930,28 +3942,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3970,21 +3982,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3996,28 +4008,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4029,20 +4041,20 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4069,21 +4081,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4102,21 +4114,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4128,66 +4140,132 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4404.8199999999997</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>248</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>133</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>34</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>208</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>249</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>133</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>34</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>250</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4440.9200000000001</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>252</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>253</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>254</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4616,10 +4694,20 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -491,55 +491,58 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>8:0</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 10 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>26.00</t>
@@ -2976,7 +2979,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3190,7 +3193,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3200,11 +3203,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3216,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>53</v>
@@ -3249,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3270,7 +3273,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>42</v>
@@ -3282,7 +3285,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3299,11 +3302,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3315,7 +3318,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3332,7 +3335,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3348,7 +3351,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3365,11 +3368,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3381,7 +3384,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3414,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,7 +3434,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3447,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,11 +3467,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3480,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,11 +3500,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3513,7 +3516,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3530,7 +3533,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3546,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,11 +3566,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3579,7 +3582,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3596,11 +3599,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>82</v>
@@ -3612,7 +3615,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3629,11 +3632,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3645,7 +3648,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3662,11 +3665,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3678,7 +3681,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3695,7 +3698,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3711,7 +3714,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3728,14 +3731,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,7 +3747,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3761,11 +3764,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3777,14 +3780,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3794,11 +3797,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3810,7 +3813,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3827,11 +3830,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3843,14 +3846,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3860,11 +3863,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3876,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3909,7 +3912,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3926,11 +3929,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3942,14 +3945,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3959,11 +3962,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3975,7 +3978,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3992,11 +3995,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4008,7 +4011,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4025,11 +4028,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4041,14 +4044,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4058,11 +4061,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4074,14 +4077,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4091,11 +4094,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4107,7 +4110,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4124,11 +4127,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4140,7 +4143,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4173,7 +4176,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4190,11 +4193,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4206,7 +4209,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4223,11 +4226,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4235,13 +4238,13 @@
     </row>
     <row r="93" ht="24.75" customHeight="1">
       <c r="P93" s="13">
-        <v>4440.9200000000001</v>
+        <v>4461.9200000000001</v>
       </c>
       <c r="Q93" s="13"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
       <c t="s" r="A94" s="14">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -4249,13 +4252,13 @@
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c t="s" r="G94" s="15">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="16"/>
       <c t="s" r="K94" s="17">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -632,6 +632,15 @@
     <t>جل صبار للبشره</t>
   </si>
   <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>57:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -770,7 +779,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 7:20 PM</t>
+    <t>Saturday, 9 August, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3570,10 +3579,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3606,7 +3615,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3622,7 +3631,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3639,7 +3648,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3655,7 +3664,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3665,11 +3674,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3681,7 +3690,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3698,11 +3707,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3714,7 +3723,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3731,14 +3740,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3797,11 +3806,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3830,11 +3839,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3853,7 +3862,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3863,11 +3872,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3896,14 +3905,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3952,7 +3961,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3962,11 +3971,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4028,11 +4037,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4051,7 +4060,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4061,11 +4070,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4094,11 +4103,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4127,11 +4136,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4150,7 +4159,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4160,11 +4169,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4193,11 +4202,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4209,7 +4218,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4226,49 +4235,82 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4461.9200000000001</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>253</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>133</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>34</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>254</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>255</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4466.9200000000001</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>256</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>257</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>258</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4707,10 +4749,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE-N 5 VAG. SUPP</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
@@ -371,231 +383,246 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>2:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>OPHILOCOND 0.1% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ORCHADEXOLINE EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>58.0800</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>WESTABREATH 500 MCG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>212.00</t>
+  </si>
+  <si>
+    <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>ZYMAGALLIN 30 TAB</t>
+  </si>
+  <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>OPHILOCOND 0.1% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>22.50</t>
-  </si>
-  <si>
-    <t>22.5000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ORCHADEXOLINE EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>PRIDOCAINE CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:5</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 10 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>58.0800</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>WESTABREATH 500 MCG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>212.00</t>
-  </si>
-  <si>
-    <t>WINZOXIB 90MG 20 TAB</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>ZYMAGALLIN 30 TAB</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -683,9 +710,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -734,12 +758,6 @@
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>كريم فريند لافلي الكبير</t>
   </si>
   <si>
@@ -779,7 +797,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 7:29 PM</t>
+    <t>Saturday, 9 August, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1503,7 +1521,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1512,14 +1530,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1536,7 +1554,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1545,14 +1563,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1562,14 +1580,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1578,31 +1596,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1611,20 +1629,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1635,7 +1653,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1668,7 +1686,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1684,7 +1702,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1694,14 +1712,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1710,14 +1728,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1727,11 +1745,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1743,14 +1761,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1760,14 +1778,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1776,14 +1794,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1793,14 +1811,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1809,14 +1827,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1833,7 +1851,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1849,7 +1867,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1859,14 +1877,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1875,14 +1893,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1892,14 +1910,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1908,14 +1926,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1925,14 +1943,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1941,14 +1959,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1958,14 +1976,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1974,14 +1992,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1991,14 +2009,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2007,14 +2025,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2024,14 +2042,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2040,14 +2058,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2057,14 +2075,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2073,14 +2091,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2123,14 +2141,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2139,14 +2157,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2156,14 +2174,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2179,7 +2197,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2189,14 +2207,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2205,31 +2223,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2238,7 +2256,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2251,18 +2269,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2271,14 +2289,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2288,14 +2306,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2304,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2321,14 +2339,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2337,14 +2355,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2354,11 +2372,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2370,14 +2388,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2387,11 +2405,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2403,14 +2421,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2420,11 +2438,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2436,28 +2454,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2469,20 +2487,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2493,7 +2511,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2509,7 +2527,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2519,14 +2537,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2535,7 +2553,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2552,14 +2570,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2568,14 +2586,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2585,11 +2603,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2601,14 +2619,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,11 +2636,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2634,14 +2652,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,11 +2669,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2667,7 +2685,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2684,11 +2702,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2700,31 +2718,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2733,31 +2751,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2766,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,14 +2801,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2799,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,11 +2834,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2832,14 +2850,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,14 +2867,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2865,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,14 +2900,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2898,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2931,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2964,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2981,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2997,14 +3015,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3030,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,11 +3065,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3063,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,11 +3164,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,11 +3197,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3202,7 +3220,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3212,11 +3230,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3261,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3294,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3311,11 +3329,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3362,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3367,7 +3385,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,14 +3395,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3393,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3426,31 +3444,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3459,31 +3477,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3499,24 +3517,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3525,28 +3543,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3571,7 +3589,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3579,10 +3597,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,28 +3609,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3624,31 +3642,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3657,20 +3675,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3678,10 +3696,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3690,28 +3708,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3723,7 +3741,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3736,18 +3754,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3756,31 +3774,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3789,7 +3807,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3802,15 +3820,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3822,28 +3840,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3855,7 +3873,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3868,18 +3886,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,28 +3906,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3921,31 +3939,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3954,7 +3972,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3967,15 +3985,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3987,28 +4005,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4020,31 +4038,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,28 +4071,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4086,28 +4104,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4126,21 +4144,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4159,21 +4177,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4185,28 +4203,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4218,28 +4236,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4251,66 +4269,165 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4466.9200000000001</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>256</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>257</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>180</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>38</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>31</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>258</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>137</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>38</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>221</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>259</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>137</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>38</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>260</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4618.4200000000001</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>262</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>263</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>264</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4754,10 +4871,25 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -398,7 +398,7 @@
     <t>145.00</t>
   </si>
   <si>
-    <t>72.5000</t>
+    <t>145.0000</t>
   </si>
   <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
@@ -473,6 +473,15 @@
     <t>4.8000</t>
   </si>
   <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -491,6 +500,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>RIVAROSPIRE 10 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>254.00</t>
+  </si>
+  <si>
+    <t>127.0000</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -512,6 +530,15 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
+    <t>THIOTACID 600 ORIGINAL 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>122.5000</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
@@ -797,7 +824,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 7:31 PM</t>
+    <t>Saturday, 9 August, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2560,7 +2587,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2577,7 +2604,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2923,7 +2950,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2933,7 +2960,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2956,7 +2983,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2966,14 +2993,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2989,7 +3016,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3006,7 +3033,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3022,7 +3049,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,14 +3059,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3055,7 +3082,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,14 +3092,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,14 +3108,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,14 +3125,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,14 +3158,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3147,14 +3174,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,14 +3191,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,11 +3224,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,14 +3257,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,11 +3290,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3279,14 +3306,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3296,11 +3323,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3312,14 +3339,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,14 +3389,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3378,14 +3405,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3422,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3438,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,11 +3455,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3444,14 +3471,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3465,10 +3492,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3477,14 +3504,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,14 +3521,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3510,14 +3537,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,14 +3554,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,31 +3570,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,31 +3603,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3616,24 +3643,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3669,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,7 +3686,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3696,10 +3723,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,14 +3735,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,11 +3752,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3741,14 +3768,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,14 +3785,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,14 +3801,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3795,10 +3822,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3807,14 +3834,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,11 +3851,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3840,7 +3867,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3857,14 +3884,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,14 +3900,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,14 +3917,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3906,7 +3933,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3923,11 +3950,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3939,14 +3966,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,11 +3983,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3972,7 +3999,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3989,14 +4016,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,14 +4032,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,11 +4049,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4038,14 +4065,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,14 +4082,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,7 +4098,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4088,11 +4115,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4104,14 +4131,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,11 +4148,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4137,14 +4164,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,14 +4181,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4170,14 +4197,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,11 +4214,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4203,14 +4230,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,11 +4247,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4236,14 +4263,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,11 +4280,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4269,14 +4296,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4286,11 +4313,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4302,14 +4329,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4319,11 +4346,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4335,14 +4362,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4352,11 +4379,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4368,14 +4395,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4385,49 +4412,148 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4618.4200000000001</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>262</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>263</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>264</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>266</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>189</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>38</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>31</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>267</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>137</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>38</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>230</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>268</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>137</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>38</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>269</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>4998.4200000000001</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>271</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>272</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>273</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4886,10 +5012,25 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>CYNCHOLINE 20CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>DAPAGLIF 10MG 14 F.C. TABS</t>
   </si>
   <si>
@@ -380,6 +389,24 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -521,10 +548,10 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>42.0000</t>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>63.0000</t>
   </si>
   <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
@@ -578,9 +605,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>VIBRAMYCIN 100MG 10 CAPS.</t>
   </si>
   <si>
@@ -614,6 +638,15 @@
     <t>58.0800</t>
   </si>
   <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -701,9 +734,6 @@
     <t>60:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -713,9 +743,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -740,7 +767,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سلاكه اسنان بلاستك</t>
@@ -824,7 +851,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 7:32 PM</t>
+    <t>Saturday, 9 August, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2142,7 +2169,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2158,7 +2185,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2168,11 +2195,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2184,14 +2211,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2201,14 +2228,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2234,11 +2261,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>29</v>
@@ -2250,14 +2277,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2274,7 +2301,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2290,13 +2317,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2307,7 +2334,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2329,7 +2356,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2340,7 +2367,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2356,7 +2383,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2373,7 +2400,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2389,7 +2416,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2406,7 +2433,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2422,7 +2449,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2488,7 +2515,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2521,13 +2548,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2554,24 +2581,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2580,14 +2607,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2597,11 +2624,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2613,14 +2640,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2630,14 +2657,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2646,14 +2673,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2670,7 +2697,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2686,7 +2713,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2696,7 +2723,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2729,11 +2756,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2745,14 +2772,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2762,11 +2789,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2778,31 +2805,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2811,14 +2838,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2828,14 +2855,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2844,14 +2871,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2861,11 +2888,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2884,24 +2911,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2910,14 +2937,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2927,11 +2954,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>29</v>
@@ -2943,14 +2970,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2960,14 +2987,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2976,14 +3003,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2993,14 +3020,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3016,7 +3043,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3026,14 +3053,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3049,7 +3076,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3082,7 +3109,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3092,7 +3119,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3115,7 +3142,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3125,14 +3152,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3148,7 +3175,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3158,14 +3185,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3174,14 +3201,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3191,11 +3218,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>29</v>
@@ -3207,14 +3234,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3224,14 +3251,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3240,14 +3267,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3257,14 +3284,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3273,14 +3300,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3290,14 +3317,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3306,14 +3333,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3323,11 +3350,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3339,14 +3366,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3356,14 +3383,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3372,14 +3399,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3389,11 +3416,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3405,14 +3432,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3422,11 +3449,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3438,14 +3465,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3478,7 +3505,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3488,14 +3515,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3504,14 +3531,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3521,14 +3548,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3537,14 +3564,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,11 +3581,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3570,14 +3597,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3587,14 +3614,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,10 +3651,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3636,14 +3663,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3653,14 +3680,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3669,28 +3696,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3702,31 +3729,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3742,24 +3769,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3768,31 +3795,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3801,14 +3828,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3818,14 +3845,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3834,14 +3861,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3851,11 +3878,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3867,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3891,7 +3918,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3907,7 +3934,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3917,11 +3944,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3933,14 +3960,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3950,14 +3977,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3973,7 +4000,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,11 +4010,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3999,7 +4026,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4016,14 +4043,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4032,14 +4059,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4049,11 +4076,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4065,14 +4092,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4082,11 +4109,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4098,7 +4125,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4115,11 +4142,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4131,14 +4158,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4148,14 +4175,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4164,14 +4191,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4181,14 +4208,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4197,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4214,11 +4241,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4230,14 +4257,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4247,11 +4274,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4263,14 +4290,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4280,11 +4307,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4296,14 +4323,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4313,14 +4340,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4329,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4346,11 +4373,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4362,14 +4389,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4379,11 +4406,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4395,7 +4422,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4412,11 +4439,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4435,7 +4462,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4445,11 +4472,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4468,7 +4495,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4478,11 +4505,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4494,14 +4521,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4511,49 +4538,181 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4998.4200000000001</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>271</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>272</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>12</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>38</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
         <v>273</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>275</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>179</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>38</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>31</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>276</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>146</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>38</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>83</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>277</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>146</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>38</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>278</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5225.4200000000001</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>280</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>281</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>282</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5027,10 +5186,30 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>COLD CONTROL 20 TAB</t>
   </si>
   <si>
@@ -335,6 +347,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
   </si>
   <si>
@@ -347,12 +368,6 @@
     <t>GELOGAR DROPS 15ML</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -404,9 +419,6 @@
     <t>1:4</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -428,6 +440,15 @@
     <t>145.0000</t>
   </si>
   <si>
+    <t>NAPIZOLE 20MG 14 CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -785,9 +806,6 @@
     <t xml:space="preserve">شاور جل مود </t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -851,7 +869,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 7:40 PM</t>
+    <t>Saturday, 9 August, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1987,21 +2005,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2013,14 +2031,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2030,14 +2048,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2046,14 +2064,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2063,11 +2081,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -2079,14 +2097,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2096,14 +2114,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2112,14 +2130,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2129,14 +2147,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2145,14 +2163,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2162,11 +2180,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -2178,7 +2196,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2195,14 +2213,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2211,14 +2229,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2261,14 +2279,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2277,14 +2295,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2294,7 +2312,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2317,7 +2335,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2327,14 +2345,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2343,31 +2361,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2376,7 +2394,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2389,18 +2407,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2409,14 +2427,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2426,14 +2444,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2442,28 +2460,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2475,14 +2493,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2492,14 +2510,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2508,14 +2526,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2525,11 +2543,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2541,14 +2559,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2558,11 +2576,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2574,28 +2592,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2607,14 +2625,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2624,11 +2642,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2640,31 +2658,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2673,14 +2691,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2690,14 +2708,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2706,14 +2724,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2723,14 +2741,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2739,14 +2757,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2756,14 +2774,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2772,14 +2790,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2789,11 +2807,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2805,14 +2823,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2822,11 +2840,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2838,7 +2856,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2855,11 +2873,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2878,7 +2896,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2888,11 +2906,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2904,31 +2922,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2937,14 +2955,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2954,14 +2972,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2977,7 +2995,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,11 +3005,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3003,31 +3021,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3043,7 +3061,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,7 +3071,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3076,7 +3094,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3093,7 +3111,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3109,7 +3127,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,14 +3137,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3135,14 +3153,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3152,14 +3170,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3168,14 +3186,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3185,11 +3203,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -3201,14 +3219,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3218,11 +3236,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>29</v>
@@ -3234,14 +3252,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3251,14 +3269,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3267,14 +3285,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,14 +3302,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3307,7 +3325,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3340,7 +3358,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,14 +3368,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3366,14 +3384,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,14 +3401,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3399,14 +3417,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3416,14 +3434,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3432,14 +3450,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3449,11 +3467,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3472,7 +3490,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3489,7 +3507,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3505,7 +3523,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3515,11 +3533,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3531,14 +3549,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,11 +3566,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3571,7 +3589,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,11 +3599,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3597,14 +3615,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,14 +3632,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,14 +3648,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,11 +3665,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3663,14 +3681,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,14 +3698,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3696,14 +3714,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,14 +3731,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3747,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3764,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,14 +3780,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,14 +3797,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3802,7 +3820,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,14 +3830,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3828,20 +3846,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3849,10 +3867,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3868,24 +3886,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3894,31 +3912,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3927,14 +3945,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,11 +3962,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3960,14 +3978,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,14 +3995,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3993,14 +4011,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4010,7 +4028,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4033,7 +4051,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4043,14 +4061,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,14 +4077,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4080,10 +4098,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4092,14 +4110,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4109,11 +4127,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4125,7 +4143,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4142,14 +4160,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4158,14 +4176,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4175,14 +4193,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4191,7 +4209,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4208,14 +4226,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,14 +4242,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4241,11 +4259,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4257,7 +4275,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4274,14 +4292,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4290,14 +4308,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4307,14 +4325,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4323,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4340,14 +4358,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4396,7 +4414,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4406,11 +4424,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4429,7 +4447,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4439,14 +4457,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4455,14 +4473,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4472,11 +4490,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4488,14 +4506,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4505,11 +4523,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4528,7 +4546,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4538,11 +4556,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4561,7 +4579,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4571,11 +4589,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4587,14 +4605,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4604,11 +4622,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>147</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4620,14 +4638,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4637,11 +4655,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4653,14 +4671,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4670,49 +4688,148 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5225.4200000000001</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>280</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>281</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>186</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>38</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>31</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>282</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>153</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>38</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>87</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>283</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>153</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>38</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>284</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5371.4200000000001</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>286</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>287</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>288</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5206,10 +5323,25 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -482,6 +482,9 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -869,7 +872,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:01 PM</t>
+    <t>Saturday, 9 August, 2025 8:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3028,24 +3031,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3054,31 +3057,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,14 +3107,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3120,14 +3123,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,11 +3140,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3160,7 +3163,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3170,14 +3173,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,11 +3206,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -3219,14 +3222,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,11 +3239,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>29</v>
@@ -3252,14 +3255,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3269,14 +3272,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3285,14 +3288,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,14 +3305,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3318,14 +3321,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3335,11 +3338,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,14 +3371,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3384,14 +3387,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,14 +3404,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3424,7 +3427,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3434,14 +3437,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,14 +3536,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3549,14 +3552,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,11 +3569,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3589,7 +3592,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,11 +3602,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3615,14 +3618,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,11 +3635,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3655,7 +3658,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3665,11 +3668,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3681,14 +3684,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3698,11 +3701,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3764,14 +3767,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3780,14 +3783,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,14 +3800,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3830,14 +3833,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,11 +3899,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>29</v>
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,11 +3932,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>29</v>
@@ -3945,31 +3948,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3995,11 +3998,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4044,14 +4047,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4084,7 +4087,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,14 +4097,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,14 +4130,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4160,14 +4163,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4226,11 +4229,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4259,11 +4262,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4292,14 +4295,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4308,7 +4311,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4325,14 +4328,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>97</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,14 +4344,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4358,14 +4361,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4381,7 +4384,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4391,11 +4394,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4407,14 +4410,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4424,11 +4427,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4447,7 +4450,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4457,14 +4460,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4473,14 +4476,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4490,14 +4493,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4506,14 +4509,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,11 +4526,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4546,7 +4549,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4556,11 +4559,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4579,7 +4582,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4589,11 +4592,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4612,7 +4615,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4622,11 +4625,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4638,14 +4641,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4655,11 +4658,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4678,7 +4681,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4688,11 +4691,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4704,14 +4707,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4721,11 +4724,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4744,7 +4747,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4754,11 +4757,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4787,49 +4790,82 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>87</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>284</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>153</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>38</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>285</v>
       </c>
-      <c t="s" r="Q106" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5371.4200000000001</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>286</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5395.4200000000001</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
         <v>287</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
         <v>288</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>289</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5338,10 +5374,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -872,7 +872,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:02 PM</t>
+    <t>Saturday, 9 August, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -329,6 +329,18 @@
     <t>106.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOZOVA FLEXETA 30 TAB</t>
   </si>
   <si>
@@ -425,9 +437,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>63.8400</t>
   </si>
   <si>
@@ -704,9 +713,6 @@
     <t>ZYMAGALLIN 30 TAB</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -872,7 +878,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:08 PM</t>
+    <t>Saturday, 9 August, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2404,21 +2410,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2430,7 +2436,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2443,18 +2449,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2463,28 +2469,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2496,7 +2502,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2509,18 +2515,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2529,14 +2535,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2546,14 +2552,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2562,14 +2568,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2579,11 +2585,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2595,7 +2601,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2612,11 +2618,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2645,11 +2651,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2661,28 +2667,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2694,28 +2700,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2744,14 +2750,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2800,7 +2806,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2833,7 +2839,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2866,7 +2872,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2899,7 +2905,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2932,7 +2938,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2942,7 +2948,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2965,7 +2971,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2975,11 +2981,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2991,7 +2997,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3008,11 +3014,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3045,7 +3051,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3057,31 +3063,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3097,13 +3103,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3114,7 +3120,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3130,7 +3136,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3147,7 +3153,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3163,7 +3169,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3173,11 +3179,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3206,14 +3212,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3229,7 +3235,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3239,7 +3245,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3262,7 +3268,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3272,7 +3278,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3295,7 +3301,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3328,7 +3334,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3345,7 +3351,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3361,7 +3367,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3394,7 +3400,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3404,14 +3410,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3427,7 +3433,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3470,14 +3476,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3493,7 +3499,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3507,10 +3513,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3519,14 +3525,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3536,14 +3542,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3559,7 +3565,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3576,7 +3582,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3592,7 +3598,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3602,11 +3608,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3635,11 +3641,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3658,7 +3664,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3668,11 +3674,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3701,11 +3707,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3724,7 +3730,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3734,11 +3740,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3767,14 +3773,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3783,14 +3789,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3807,7 +3813,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3823,7 +3829,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3833,14 +3839,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3856,7 +3862,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3866,14 +3872,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3889,7 +3895,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3903,10 +3909,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3932,11 +3938,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>29</v>
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3965,11 +3971,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>29</v>
@@ -3981,31 +3987,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4014,14 +4020,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4031,11 +4037,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4047,14 +4053,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4064,11 +4070,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4097,11 +4103,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4196,14 +4202,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4219,7 +4225,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4233,10 +4239,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4262,11 +4268,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4278,7 +4284,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4295,11 +4301,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4311,7 +4317,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4361,14 +4367,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>97</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4384,7 +4390,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4427,11 +4433,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4460,11 +4466,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>69</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4493,14 +4499,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4516,7 +4522,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4559,11 +4565,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4575,14 +4581,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4592,11 +4598,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4625,11 +4631,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4658,11 +4664,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4674,14 +4680,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4691,11 +4697,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4707,14 +4713,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4724,11 +4730,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4740,14 +4746,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4757,11 +4763,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4790,11 +4796,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4823,49 +4829,82 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>87</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>286</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5395.4200000000001</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>156</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>38</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
         <v>287</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
         <v>288</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5411.2600000000002</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
         <v>289</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>290</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>291</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5379,10 +5418,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -467,6 +467,12 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OPHILOCOND 0.1% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -764,9 +770,6 @@
     <t>60:0</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -878,7 +881,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:14 PM</t>
+    <t>Saturday, 9 August, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2938,7 +2941,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2948,11 +2951,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2964,14 +2967,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2981,11 +2984,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2997,14 +3000,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3014,11 +3017,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3030,7 +3033,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3047,11 +3050,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3063,14 +3066,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3084,7 +3087,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3096,31 +3099,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3129,31 +3132,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3162,14 +3165,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3179,14 +3182,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3195,14 +3198,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3212,11 +3215,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3228,14 +3231,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3245,14 +3248,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3261,14 +3264,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>29</v>
@@ -3294,14 +3297,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3311,11 +3314,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3327,14 +3330,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3344,14 +3347,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3360,14 +3363,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,14 +3380,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3393,14 +3396,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,11 +3413,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3426,14 +3429,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3443,14 +3446,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3459,14 +3462,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,14 +3479,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3492,14 +3495,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3509,14 +3512,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3525,14 +3528,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3542,14 +3545,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3565,7 +3568,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3579,10 +3582,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3591,14 +3594,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3608,14 +3611,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3624,14 +3627,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3641,11 +3644,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3657,14 +3660,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3674,11 +3677,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3690,14 +3693,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3707,11 +3710,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3723,14 +3726,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,11 +3743,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3756,14 +3759,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,11 +3776,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3789,14 +3792,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3806,14 +3809,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3822,14 +3825,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3839,14 +3842,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3855,14 +3858,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,14 +3875,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3888,14 +3891,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3905,14 +3908,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3921,14 +3924,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3938,14 +3941,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3961,7 +3964,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3975,7 +3978,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>29</v>
@@ -3994,7 +3997,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,11 +4007,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>29</v>
@@ -4020,31 +4023,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4053,14 +4056,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,11 +4073,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4086,14 +4089,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,11 +4106,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4119,14 +4122,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4136,11 +4139,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4152,14 +4155,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4169,14 +4172,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4185,14 +4188,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4202,14 +4205,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4218,14 +4221,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4235,14 +4238,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4251,14 +4254,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4268,14 +4271,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4284,14 +4287,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4301,11 +4304,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4334,11 +4337,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4367,14 +4370,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4383,7 +4386,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4400,14 +4403,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>97</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4416,14 +4419,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4433,14 +4436,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4456,7 +4459,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4466,11 +4469,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4482,14 +4485,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4499,11 +4502,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4522,7 +4525,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4532,14 +4535,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4548,14 +4551,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4565,14 +4568,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4581,14 +4584,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4598,11 +4601,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4621,7 +4624,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4631,11 +4634,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4654,7 +4657,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4664,11 +4667,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4687,7 +4690,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4697,11 +4700,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4713,14 +4716,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4730,11 +4733,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4753,7 +4756,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4763,11 +4766,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4779,14 +4782,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4796,11 +4799,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4819,7 +4822,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4829,11 +4832,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4852,7 +4855,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4862,49 +4865,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>287</v>
+        <v>87</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>287</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>158</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>38</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>288</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5411.2600000000002</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>289</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5431.2600000000002</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>290</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
         <v>291</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>292</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5423,10 +5459,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -302,9 +314,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -449,6 +458,15 @@
     <t>145.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>NAPIZOLE 20MG 14 CAP</t>
   </si>
   <si>
@@ -527,6 +545,9 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
@@ -614,9 +635,6 @@
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>0.0000</t>
   </si>
   <si>
@@ -881,7 +899,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:21 PM</t>
+    <t>Saturday, 9 August, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2023,7 +2041,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2050,21 +2068,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2126,11 +2144,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2159,14 +2177,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2192,14 +2210,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2208,14 +2226,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2225,11 +2243,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>29</v>
@@ -2241,7 +2259,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2258,14 +2276,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2324,14 +2342,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2340,14 +2358,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2357,11 +2375,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2397,7 +2415,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2413,7 +2431,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2439,20 +2457,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2485,7 +2503,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2496,7 +2514,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2512,13 +2530,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2551,7 +2569,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2562,7 +2580,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2578,7 +2596,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2588,14 +2606,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2621,11 +2639,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2677,7 +2695,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2710,13 +2728,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2743,13 +2761,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2776,7 +2794,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2786,14 +2804,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2842,7 +2860,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2852,14 +2870,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2875,7 +2893,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2908,7 +2926,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2941,7 +2959,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2951,11 +2969,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2984,11 +3002,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3000,14 +3018,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3017,7 +3035,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3040,7 +3058,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3050,11 +3068,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3066,14 +3084,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3087,7 +3105,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3099,14 +3117,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3116,11 +3134,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3132,31 +3150,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3165,14 +3183,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3211,7 +3229,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3222,7 +3240,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3238,7 +3256,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3248,14 +3266,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3264,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3281,14 +3299,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3297,7 +3315,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3310,18 +3328,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3337,7 +3355,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3347,14 +3365,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3363,14 +3381,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3380,14 +3398,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3396,14 +3414,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3413,11 +3431,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3429,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3446,11 +3464,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3462,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3479,14 +3497,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3495,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3512,14 +3530,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3535,7 +3553,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3568,7 +3586,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3578,14 +3596,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3594,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3611,14 +3629,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3627,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3644,14 +3662,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3660,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3677,11 +3695,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3700,7 +3718,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3710,14 +3728,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3726,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3743,11 +3761,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3759,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3776,11 +3794,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3792,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3809,11 +3827,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3825,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3842,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3858,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3875,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3891,14 +3909,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3908,14 +3926,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3924,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3941,14 +3959,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3974,14 +3992,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3990,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4007,14 +4025,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4023,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4040,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4056,20 +4074,20 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4077,10 +4095,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4096,24 +4114,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4122,31 +4140,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,14 +4173,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4172,11 +4190,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4188,14 +4206,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4205,14 +4223,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4221,14 +4239,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4238,11 +4256,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>87</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4261,7 +4279,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4271,14 +4289,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4287,14 +4305,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4308,10 +4326,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4320,14 +4338,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4337,11 +4355,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4370,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4386,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4403,14 +4421,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4419,7 +4437,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4436,14 +4454,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4452,14 +4470,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4469,11 +4487,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4485,7 +4503,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4502,14 +4520,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4525,7 +4543,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4535,14 +4553,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4551,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4568,14 +4586,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4624,7 +4642,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4634,11 +4652,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4657,7 +4675,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4667,14 +4685,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4683,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4700,11 +4718,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4716,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4733,11 +4751,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4756,7 +4774,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4766,11 +4784,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4789,7 +4807,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4799,11 +4817,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4815,14 +4833,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4832,11 +4850,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4848,14 +4866,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4865,11 +4883,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4881,14 +4899,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4898,49 +4916,148 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5431.2600000000002</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>290</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>291</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>199</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>38</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>31</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>292</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>164</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>38</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>91</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>293</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>164</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>38</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>294</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5568.2600000000002</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>296</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>297</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>298</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5464,10 +5581,25 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BUSCOPAN 20MG/ML 6 AMP.</t>
   </si>
   <si>
@@ -359,6 +368,18 @@
     <t>95.7000</t>
   </si>
   <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -503,9 +524,6 @@
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -857,6 +875,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -896,10 +917,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 9 August, 2025 8:24 PM</t>
+    <t>Saturday, 9 August, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1969,7 +1987,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1979,11 +1997,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2035,7 +2053,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2045,14 +2063,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2061,28 +2079,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2094,20 +2112,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2134,7 +2152,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2151,7 +2169,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2167,7 +2185,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2200,7 +2218,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2243,14 +2261,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2266,7 +2284,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2316,7 +2334,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2332,7 +2350,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2342,11 +2360,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2375,14 +2393,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2408,11 +2426,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2448,7 +2466,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2464,7 +2482,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2490,20 +2508,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2536,7 +2554,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2547,7 +2565,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2563,21 +2581,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2589,14 +2607,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2606,14 +2624,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2622,28 +2640,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2688,14 +2706,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2705,11 +2723,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2721,14 +2739,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2738,11 +2756,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2754,28 +2772,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,11 +2822,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2820,31 +2838,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2870,14 +2888,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2969,11 +2987,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3002,11 +3020,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3035,11 +3053,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3068,11 +3086,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3101,11 +3119,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3134,11 +3152,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3150,14 +3168,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3171,7 +3189,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,11 +3218,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3216,31 +3234,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3249,14 +3267,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3295,7 +3313,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3306,7 +3324,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3322,24 +3340,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3365,11 +3383,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3381,31 +3399,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3431,14 +3449,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3464,7 +3482,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3504,7 +3522,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3520,7 +3538,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,7 +3548,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3553,7 +3571,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3570,7 +3588,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3586,7 +3604,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3619,7 +3637,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,14 +3647,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,14 +3680,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,11 +3713,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,14 +3746,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3744,14 +3762,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3761,11 +3779,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3810,14 +3828,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,11 +3845,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3843,14 +3861,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,11 +3878,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,11 +3911,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3909,14 +3927,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3926,11 +3944,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,11 +4010,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4008,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,14 +4043,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4048,7 +4066,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4081,7 +4099,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,14 +4109,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,7 +4158,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4157,11 +4175,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>29</v>
@@ -4173,31 +4191,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4206,31 +4224,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4239,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4256,11 +4274,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,11 +4307,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,14 +4340,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4338,14 +4356,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4355,11 +4373,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4388,14 +4406,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,14 +4422,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4421,11 +4439,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4437,7 +4455,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4454,14 +4472,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,14 +4488,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,11 +4505,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4503,7 +4521,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4520,14 +4538,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4536,7 +4554,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4553,14 +4571,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4569,14 +4587,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4586,14 +4604,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4602,7 +4620,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4619,14 +4637,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4652,11 +4670,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4668,14 +4686,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,14 +4703,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4701,14 +4719,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4734,14 +4752,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,14 +4769,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4767,7 +4785,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4784,11 +4802,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4800,14 +4818,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4817,11 +4835,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4833,14 +4851,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4850,14 +4868,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4866,14 +4884,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4883,11 +4901,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4899,14 +4917,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4916,11 +4934,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4932,14 +4950,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4949,11 +4967,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4965,14 +4983,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4982,11 +5000,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -4998,14 +5016,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5015,49 +5033,115 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>295</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5568.2600000000002</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>296</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>297</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>298</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>299</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>120</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>38</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>94</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>300</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>120</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>38</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>301</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5641.4899999999998</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>302</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>303</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>304</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5596,10 +5680,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -536,6 +536,15 @@
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -644,6 +653,12 @@
     <t>122.5000</t>
   </si>
   <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
@@ -767,63 +782,63 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>جل صبار للبشره</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>57:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>60:0</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>رباط ضغط 6سم</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>جل صبار للبشره</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>57:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>60:0</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>رباط ضغط 6سم</t>
-  </si>
-  <si>
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
@@ -854,6 +869,15 @@
     <t xml:space="preserve">شاور جل مود </t>
   </si>
   <si>
+    <t>شيروسا شامبو 400 مل</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -875,9 +899,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -917,7 +938,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:40 PM</t>
+    <t>Saturday, 9 August, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3307,13 +3328,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3324,7 +3345,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3340,13 +3361,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3357,7 +3378,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3373,7 +3394,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3390,7 +3411,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3406,21 +3427,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3432,28 +3453,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3465,14 +3486,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3482,14 +3503,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3505,7 +3526,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3515,7 +3536,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3538,7 +3559,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3548,7 +3569,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3571,7 +3592,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3581,14 +3602,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3604,7 +3625,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3621,7 +3642,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3637,7 +3658,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3670,7 +3691,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3680,14 +3701,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3703,7 +3724,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3713,14 +3734,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3729,14 +3750,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,14 +3767,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3769,7 +3790,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3783,10 +3804,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3795,14 +3816,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,14 +3833,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3828,14 +3849,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,11 +3866,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3868,7 +3889,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3878,14 +3899,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3894,14 +3915,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,11 +3932,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3927,14 +3948,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,11 +3965,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3960,14 +3981,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,11 +3998,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3993,14 +4014,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,11 +4031,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4026,14 +4047,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,14 +4064,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4059,14 +4080,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,11 +4097,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4092,14 +4113,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4109,14 +4130,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4125,14 +4146,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,11 +4163,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4158,14 +4179,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,14 +4196,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>66</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4198,7 +4219,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4212,10 +4233,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4224,7 +4245,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4241,11 +4262,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>114</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>29</v>
@@ -4257,31 +4278,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,31 +4311,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4323,14 +4344,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4340,11 +4361,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4356,14 +4377,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4373,14 +4394,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4389,14 +4410,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4406,14 +4427,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4429,7 +4450,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4439,11 +4460,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4455,14 +4476,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4476,10 +4497,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4495,7 +4516,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4505,11 +4526,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>94</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4521,7 +4542,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4538,14 +4559,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4561,7 +4582,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4571,11 +4592,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4587,7 +4608,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4604,14 +4625,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,7 +4641,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4637,14 +4658,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,14 +4674,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4670,14 +4691,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>254</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,7 +4707,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4703,14 +4724,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,14 +4740,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4736,11 +4757,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4752,14 +4773,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4769,14 +4790,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4785,14 +4806,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4802,11 +4823,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4825,7 +4846,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4835,11 +4856,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4851,14 +4872,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4868,11 +4889,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4884,14 +4905,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4901,11 +4922,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4917,14 +4938,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4934,11 +4955,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4950,14 +4971,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4967,14 +4988,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4983,14 +5004,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5000,11 +5021,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5016,14 +5037,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5033,11 +5054,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>171</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5049,14 +5070,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5066,11 +5087,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5082,14 +5103,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5099,49 +5120,148 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5641.4899999999998</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>302</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>303</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>304</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>305</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>208</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>38</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>31</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>306</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>120</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>38</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>94</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>307</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>120</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>38</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>308</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>5920.4899999999998</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>309</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>310</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>311</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5690,10 +5810,25 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -938,7 +938,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:41 PM</t>
+    <t>Saturday, 9 August, 2025 8:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -666,9 +666,6 @@
   </si>
   <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>0.0000</t>
   </si>
   <si>
     <t>TORSERETIC 10 MG 30 TABS.</t>
@@ -3889,7 +3886,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3903,10 +3900,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3915,7 +3912,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3932,11 +3929,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3948,7 +3945,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3981,7 +3978,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3998,11 +3995,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4014,7 +4011,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4047,7 +4044,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4064,11 +4061,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4080,14 +4077,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4097,11 +4094,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4113,14 +4110,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4130,11 +4127,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>57</v>
@@ -4146,7 +4143,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4163,11 +4160,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4179,14 +4176,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4200,7 +4197,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>46</v>
@@ -4212,7 +4209,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4229,11 +4226,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4245,7 +4242,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4262,7 +4259,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4278,7 +4275,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4295,11 +4292,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>29</v>
@@ -4311,7 +4308,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4344,14 +4341,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,7 +4358,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4377,7 +4374,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4394,11 +4391,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4410,14 +4407,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4427,11 +4424,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4443,7 +4440,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4460,7 +4457,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4476,14 +4473,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4493,11 +4490,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4509,14 +4506,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4542,7 +4539,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4559,7 +4556,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4575,7 +4572,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4592,11 +4589,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4608,7 +4605,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4625,11 +4622,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4641,7 +4638,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4658,7 +4655,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4674,7 +4671,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4691,14 +4688,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4707,7 +4704,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4724,11 +4721,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>72</v>
@@ -4740,14 +4737,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4757,11 +4754,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4773,7 +4770,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4790,11 +4787,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4806,7 +4803,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4823,11 +4820,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4839,7 +4836,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4856,11 +4853,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4872,14 +4869,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4905,7 +4902,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4922,11 +4919,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4938,14 +4935,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4955,11 +4952,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4971,7 +4968,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4988,11 +4985,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5004,7 +5001,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5021,11 +5018,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5037,14 +5034,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5054,11 +5051,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5070,14 +5067,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5087,11 +5084,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5103,7 +5100,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5120,11 +5117,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5136,7 +5133,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5169,7 +5166,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5202,7 +5199,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5219,11 +5216,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5231,13 +5228,13 @@
     </row>
     <row r="118" ht="24.75" customHeight="1">
       <c r="P118" s="13">
-        <v>5920.4899999999998</v>
+        <v>5943.4899999999998</v>
       </c>
       <c r="Q118" s="13"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
       <c t="s" r="A119" s="14">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -5245,13 +5242,13 @@
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c t="s" r="G119" s="15">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
       <c r="J119" s="16"/>
       <c t="s" r="K119" s="17">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L119" s="17"/>
       <c r="M119" s="17"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -935,7 +935,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:46 PM</t>
+    <t>Saturday, 9 August, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -935,7 +935,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:47 PM</t>
+    <t>Saturday, 9 August, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>8.1600</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -770,9 +782,6 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -848,9 +857,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -935,7 +941,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:53 PM</t>
+    <t>Saturday, 9 August, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2071,7 +2077,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2081,14 +2087,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2097,14 +2103,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2121,7 +2127,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2143,7 +2149,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2170,21 +2176,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2196,14 +2202,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2213,14 +2219,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2229,14 +2235,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2246,11 +2252,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -2262,14 +2268,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2279,14 +2285,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2295,14 +2301,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2312,14 +2318,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2328,14 +2334,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2345,11 +2351,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>29</v>
@@ -2361,7 +2367,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2378,14 +2384,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2394,14 +2400,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2434,7 +2440,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2444,14 +2450,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2460,14 +2466,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2477,7 +2483,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2500,7 +2506,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2510,14 +2516,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2526,14 +2532,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2550,7 +2556,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2566,21 +2572,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2592,20 +2598,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2616,7 +2622,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2632,7 +2638,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2642,11 +2648,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2658,28 +2664,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2691,7 +2697,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2704,18 +2710,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2724,14 +2730,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2741,14 +2747,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2757,14 +2763,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2774,11 +2780,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2790,7 +2796,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2807,11 +2813,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2823,14 +2829,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2840,11 +2846,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2856,28 +2862,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2889,28 +2895,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2922,14 +2928,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2939,14 +2945,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2955,14 +2961,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2972,14 +2978,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2988,14 +2994,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3005,14 +3011,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3021,14 +3027,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3038,11 +3044,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3054,14 +3060,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3071,11 +3077,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3087,14 +3093,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3104,11 +3110,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3120,14 +3126,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3137,11 +3143,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3153,14 +3159,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3170,11 +3176,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3203,11 +3209,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3219,14 +3225,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3236,11 +3242,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3252,7 +3258,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3269,11 +3275,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3285,14 +3291,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3306,7 +3312,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3318,14 +3324,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3335,11 +3341,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3351,31 +3357,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3384,31 +3390,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3417,14 +3423,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3434,14 +3440,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3450,28 +3456,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3483,28 +3489,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3516,14 +3522,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3533,14 +3539,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3549,14 +3555,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3566,11 +3572,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3582,14 +3588,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3599,11 +3605,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3615,14 +3621,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3632,14 +3638,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3648,14 +3654,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3665,14 +3671,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3681,14 +3687,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3698,11 +3704,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3714,14 +3720,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3731,14 +3737,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3747,14 +3753,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3764,14 +3770,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3780,14 +3786,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3797,14 +3803,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3813,14 +3819,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,14 +3836,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3846,7 +3852,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3863,11 +3869,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3879,14 +3885,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,11 +3902,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3912,14 +3918,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3929,11 +3935,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3945,14 +3951,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,11 +3968,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3978,14 +3984,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3995,11 +4001,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4011,14 +4017,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4028,11 +4034,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4044,14 +4050,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4061,11 +4067,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4077,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4134,7 +4140,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4150,7 +4156,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4160,14 +4166,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4176,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4193,14 +4199,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4209,14 +4215,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4226,14 +4232,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4242,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,14 +4265,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4275,14 +4281,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4292,11 +4298,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>29</v>
@@ -4308,14 +4314,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,11 +4331,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4341,31 +4347,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4374,14 +4380,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4391,14 +4397,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4414,7 +4420,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4424,14 +4430,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4440,14 +4446,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4457,11 +4463,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4473,14 +4479,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>124</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4490,14 +4496,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4523,14 +4529,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4539,14 +4545,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4556,14 +4562,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4572,14 +4578,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4589,14 +4595,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4612,7 +4618,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4622,11 +4628,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4638,7 +4644,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4655,11 +4661,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>84</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4671,7 +4677,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4688,14 +4694,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>259</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4704,7 +4710,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4721,14 +4727,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>72</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4737,14 +4743,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4754,14 +4760,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4770,14 +4776,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4787,11 +4793,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4803,14 +4809,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4820,11 +4826,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4836,14 +4842,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4853,11 +4859,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4869,14 +4875,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4886,14 +4892,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4909,7 +4915,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4919,14 +4925,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>87</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4935,14 +4941,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4952,11 +4958,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4968,14 +4974,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4985,14 +4991,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5001,14 +5007,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5018,14 +5024,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5034,14 +5040,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5051,11 +5057,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5067,14 +5073,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5084,11 +5090,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5100,14 +5106,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5117,11 +5123,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5133,14 +5139,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5150,11 +5156,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>31</v>
+        <v>304</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>171</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5166,14 +5172,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5183,11 +5189,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5199,14 +5205,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5216,49 +5222,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>5943.4899999999998</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>308</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>124</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>38</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
         <v>309</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>5989.4899999999998</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
         <v>310</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>311</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>312</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5822,10 +5861,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -476,10 +485,7 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>63.8400</t>
+    <t>79.6800</t>
   </si>
   <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
@@ -683,9 +689,6 @@
     <t>TORSERETIC 10 MG 30 TABS.</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
     <t>93.0000</t>
   </si>
   <si>
@@ -941,7 +944,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:55 PM</t>
+    <t>Saturday, 9 August, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1780,21 +1783,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>29</v>
@@ -1806,28 +1809,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>29</v>
@@ -1839,14 +1842,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1856,11 +1859,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
@@ -1872,14 +1875,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1896,7 +1899,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1912,7 +1915,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1945,7 +1948,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1955,14 +1958,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1978,7 +1981,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1988,14 +1991,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2011,7 +2014,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2028,7 +2031,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2044,7 +2047,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2054,11 +2057,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>29</v>
@@ -2070,14 +2073,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2087,14 +2090,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2103,14 +2106,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2127,7 +2130,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2143,7 +2146,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2153,14 +2156,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2169,28 +2172,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2202,20 +2205,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2242,7 +2245,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2259,7 +2262,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2275,7 +2278,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2308,7 +2311,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2318,14 +2321,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2334,14 +2337,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2351,14 +2354,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2374,7 +2377,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2424,7 +2427,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2440,7 +2443,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2450,11 +2453,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2466,14 +2469,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2483,14 +2486,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2499,14 +2502,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2516,11 +2519,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -2532,14 +2535,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2556,7 +2559,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2572,7 +2575,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2582,14 +2585,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2598,20 +2601,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2638,24 +2641,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2664,14 +2667,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2704,13 +2707,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2737,13 +2740,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2754,7 +2757,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2770,7 +2773,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2780,14 +2783,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2796,14 +2799,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2813,11 +2816,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2869,7 +2872,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2902,13 +2905,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2935,13 +2938,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2968,7 +2971,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2978,14 +2981,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2994,14 +2997,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3011,14 +3014,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3034,7 +3037,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,14 +3047,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3060,14 +3063,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3077,11 +3080,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3093,14 +3096,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3110,11 +3113,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3126,14 +3129,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3143,11 +3146,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3159,14 +3162,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3176,7 +3179,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3199,7 +3202,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3209,11 +3212,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3225,14 +3228,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3242,7 +3245,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3265,7 +3268,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3275,11 +3278,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3291,7 +3294,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3308,11 +3311,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3324,14 +3327,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3345,7 +3348,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3357,14 +3360,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3374,11 +3377,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3390,31 +3393,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3423,31 +3426,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3456,14 +3459,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3473,14 +3476,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3489,28 +3492,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3522,28 +3525,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3555,14 +3558,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3572,14 +3575,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3588,14 +3591,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3605,11 +3608,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3621,14 +3624,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3638,11 +3641,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3654,14 +3657,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3671,14 +3674,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3687,14 +3690,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3704,14 +3707,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3720,14 +3723,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3737,11 +3740,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3753,14 +3756,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3770,14 +3773,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3786,14 +3789,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3803,14 +3806,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3819,14 +3822,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3836,14 +3839,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3852,14 +3855,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3869,14 +3872,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3902,11 +3905,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3925,7 +3928,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3935,11 +3938,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3951,14 +3954,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3968,11 +3971,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3984,14 +3987,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4001,11 +4004,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4024,7 +4027,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4034,11 +4037,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4050,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4067,11 +4070,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4090,7 +4093,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4100,11 +4103,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4116,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4133,11 +4136,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4149,14 +4152,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4169,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4182,14 +4185,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,14 +4202,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4215,14 +4218,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,14 +4235,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4248,14 +4251,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,14 +4268,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4281,14 +4284,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4298,14 +4301,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4314,14 +4317,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,11 +4334,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4347,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,11 +4367,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>29</v>
@@ -4387,24 +4390,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4413,31 +4416,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4446,31 +4449,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>83</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4479,28 +4482,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4519,24 +4522,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4545,31 +4548,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4578,31 +4581,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4611,31 +4614,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4644,28 +4647,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4677,7 +4680,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4690,15 +4693,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4723,18 +4726,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4743,7 +4746,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4756,18 +4759,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>104</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4783,24 +4786,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4816,21 +4819,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4842,28 +4845,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4882,21 +4885,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4908,31 +4911,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>87</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4941,31 +4944,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4974,28 +4977,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5014,24 +5017,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5047,24 +5050,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5080,21 +5083,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>299</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5106,28 +5109,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5146,21 +5149,21 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5172,28 +5175,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5212,21 +5215,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5245,59 +5248,92 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>309</v>
+        <v>101</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>5989.4899999999998</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>309</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>127</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>41</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
         <v>310</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6036.0200000000004</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
         <v>311</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
         <v>312</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>313</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5866,10 +5902,15 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -428,6 +428,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>GELOGAR DROPS 15ML</t>
   </si>
   <si>
@@ -653,9 +665,6 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>63.0000</t>
   </si>
   <si>
@@ -944,7 +953,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 8:57 PM</t>
+    <t>Saturday, 9 August, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2806,7 +2815,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2816,11 +2825,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2849,11 +2858,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2865,7 +2874,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2882,11 +2891,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2915,11 +2924,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2931,28 +2940,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2964,28 +2973,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3113,11 +3122,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3146,11 +3155,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3212,11 +3221,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3278,11 +3287,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3311,11 +3320,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3327,7 +3336,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3344,11 +3353,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3360,14 +3369,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3381,7 +3390,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3426,31 +3435,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3459,31 +3468,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3509,14 +3518,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3525,28 +3534,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3558,28 +3567,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3641,11 +3650,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>29</v>
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3740,14 +3749,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3773,11 +3782,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3872,14 +3881,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3895,7 +3904,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3921,7 +3930,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3938,11 +3947,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3954,14 +3963,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,11 +3980,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,11 +4013,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4037,11 +4046,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,11 +4079,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4093,7 +4102,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,11 +4112,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4119,14 +4128,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,11 +4145,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4159,7 +4168,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,11 +4178,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4185,14 +4194,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,14 +4211,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,14 +4227,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4242,7 +4251,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4258,7 +4267,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,14 +4277,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4291,7 +4300,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,14 +4310,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4324,7 +4333,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4338,10 +4347,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,14 +4359,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,11 +4376,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>29</v>
@@ -4383,14 +4392,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,11 +4409,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>122</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>29</v>
@@ -4416,31 +4425,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>121</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4466,14 +4475,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4489,7 +4498,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4499,14 +4508,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4515,14 +4524,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,11 +4541,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4548,14 +4557,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>127</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4565,14 +4574,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4598,14 +4607,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,14 +4623,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4631,14 +4640,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4647,14 +4656,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,14 +4673,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4687,7 +4696,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4697,11 +4706,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4713,7 +4722,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4730,11 +4739,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4746,7 +4755,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4763,14 +4772,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4779,7 +4788,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4796,14 +4805,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>107</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4812,14 +4821,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4829,14 +4838,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4845,14 +4854,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4862,11 +4871,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4885,7 +4894,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4895,11 +4904,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4911,14 +4920,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4928,11 +4937,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4951,7 +4960,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4961,14 +4970,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>90</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,14 +4986,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4994,14 +5003,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5017,7 +5026,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5027,11 +5036,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5043,14 +5052,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5060,14 +5069,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5076,14 +5085,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5093,14 +5102,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5109,14 +5118,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5126,11 +5135,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5142,14 +5151,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5159,11 +5168,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5175,14 +5184,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5192,11 +5201,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5215,7 +5224,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5225,11 +5234,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5241,14 +5250,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5258,11 +5267,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5274,7 +5283,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5291,49 +5300,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>310</v>
+        <v>101</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>261</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6036.0200000000004</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>311</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>312</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>127</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>41</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>313</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6115.0200000000004</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>314</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>315</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>316</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5907,10 +5949,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -953,7 +953,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:02 PM</t>
+    <t>Saturday, 9 August, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -872,6 +872,12 @@
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>شامبو كلير للرجال 180مل</t>
   </si>
   <si>
@@ -953,7 +959,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:06 PM</t>
+    <t>Saturday, 9 August, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4894,7 +4900,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4904,11 +4910,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4920,14 +4926,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4937,11 +4943,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4953,14 +4959,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4970,11 +4976,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4986,14 +4992,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5003,14 +5009,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5026,7 +5032,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5036,14 +5042,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>90</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5052,14 +5058,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5069,11 +5075,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5085,14 +5091,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5106,10 +5112,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5118,14 +5124,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5135,14 +5141,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5151,14 +5157,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5168,11 +5174,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5184,14 +5190,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5201,11 +5207,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5217,14 +5223,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5234,11 +5240,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5250,14 +5256,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5267,11 +5273,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5283,14 +5289,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5300,11 +5306,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5316,7 +5322,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5333,49 +5339,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>314</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>127</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>41</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>315</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>264</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6115.0200000000004</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>314</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>315</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6127.0200000000004</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
         <v>316</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>317</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>318</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5954,10 +5993,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -488,6 +488,12 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -740,13 +746,13 @@
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:7</t>
+    <t>1:6</t>
   </si>
   <si>
     <t>132.00</t>
   </si>
   <si>
-    <t>58.0800</t>
+    <t>72.6000</t>
   </si>
   <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
@@ -959,7 +965,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:29 PM</t>
+    <t>Saturday, 9 August, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3052,7 +3058,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3062,11 +3068,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>29</v>
@@ -3085,7 +3091,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3095,14 +3101,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3118,7 +3124,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3128,14 +3134,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3144,14 +3150,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3161,11 +3167,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3177,14 +3183,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3194,11 +3200,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3210,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3227,11 +3233,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3243,14 +3249,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3260,7 +3266,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3283,7 +3289,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3293,11 +3299,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3309,14 +3315,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3326,7 +3332,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3349,7 +3355,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3359,11 +3365,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3375,7 +3381,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3392,11 +3398,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3408,14 +3414,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3429,7 +3435,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3441,14 +3447,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3458,11 +3464,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3474,31 +3480,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3507,31 +3513,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3557,14 +3563,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3573,28 +3579,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3606,28 +3612,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3639,14 +3645,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3656,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3672,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,11 +3695,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>29</v>
@@ -3705,14 +3711,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,11 +3728,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3788,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,11 +3827,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>29</v>
@@ -3837,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,14 +3860,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3877,7 +3883,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +3959,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3986,11 +3992,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4009,7 +4015,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,11 +4025,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,11 +4058,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4075,7 +4081,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,11 +4091,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4101,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,11 +4124,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4134,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,11 +4157,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4167,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4200,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,11 +4223,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4233,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4266,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4299,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4332,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4365,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,14 +4388,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4405,7 +4411,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4419,7 +4425,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>29</v>
@@ -4438,7 +4444,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,11 +4454,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>29</v>
@@ -4464,31 +4470,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4504,7 +4510,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4518,10 +4524,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4530,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4580,11 +4586,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4596,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4629,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4669,7 +4675,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>101</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4702,7 +4708,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4716,10 +4722,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4745,7 +4751,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4778,11 +4784,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4794,7 +4800,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4811,14 +4817,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>266</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4844,14 +4850,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>107</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4860,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,14 +4883,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,11 +4916,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>85</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4933,7 +4939,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,11 +4949,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4959,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,11 +4982,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4992,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,11 +5015,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5025,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,14 +5048,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>90</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5065,7 +5071,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,14 +5081,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5091,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,11 +5114,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5124,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,14 +5147,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5157,14 +5163,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5174,14 +5180,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5207,11 +5213,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5223,14 +5229,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5240,11 +5246,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5256,14 +5262,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5273,11 +5279,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5289,14 +5295,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5306,11 +5312,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>31</v>
+        <v>312</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>181</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5322,14 +5328,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5339,11 +5345,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5355,7 +5361,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5372,49 +5378,82 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6127.0200000000004</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>316</v>
       </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>127</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>41</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
         <v>317</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6158.5</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
         <v>318</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>319</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>320</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5998,10 +6037,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -734,13 +734,10 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
   </si>
   <si>
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
@@ -3421,7 +3418,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3435,10 +3432,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -4260,10 +4257,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,11 +4286,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>202</v>
@@ -4305,7 +4302,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4322,11 +4319,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4338,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4359,7 +4356,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>49</v>
@@ -4371,7 +4368,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4388,11 +4385,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4404,7 +4401,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4421,7 +4418,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4437,7 +4434,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4454,11 +4451,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>29</v>
@@ -4470,7 +4467,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4503,7 +4500,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4520,7 +4517,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4536,7 +4533,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4553,11 +4550,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4569,14 +4566,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,11 +4583,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4602,7 +4599,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4619,7 +4616,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4635,14 +4632,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,11 +4649,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4668,14 +4665,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4701,7 +4698,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4718,7 +4715,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4734,7 +4731,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4751,11 +4748,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4767,7 +4764,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4784,11 +4781,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4800,7 +4797,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4817,7 +4814,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4833,7 +4830,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4850,14 +4847,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,7 +4863,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4883,7 +4880,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4899,7 +4896,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4916,11 +4913,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4932,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4965,7 +4962,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4982,11 +4979,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4998,7 +4995,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5015,11 +5012,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5031,7 +5028,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5048,11 +5045,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5064,14 +5061,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5097,7 +5094,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5114,11 +5111,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5130,7 +5127,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5147,11 +5144,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5163,7 +5160,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5180,11 +5177,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5196,7 +5193,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5229,14 +5226,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,11 +5243,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5262,14 +5259,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5279,11 +5276,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5295,7 +5292,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5312,11 +5309,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5328,7 +5325,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5361,7 +5358,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5394,7 +5391,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5411,11 +5408,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5423,13 +5420,13 @@
     </row>
     <row r="123" ht="24.75" customHeight="1">
       <c r="P123" s="13">
-        <v>6158.5</v>
+        <v>6208.5</v>
       </c>
       <c r="Q123" s="13"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
       <c t="s" r="A124" s="14">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -5437,13 +5434,13 @@
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c t="s" r="G124" s="15">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="16"/>
       <c t="s" r="K124" s="17">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L124" s="17"/>
       <c r="M124" s="17"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -428,6 +428,12 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
@@ -962,7 +968,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:34 PM</t>
+    <t>Saturday, 9 August, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2824,7 +2830,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2834,14 +2840,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2867,11 +2873,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2883,14 +2889,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2900,11 +2906,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2916,7 +2922,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2933,11 +2939,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2966,11 +2972,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2982,28 +2988,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3015,28 +3021,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3048,14 +3054,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,14 +3071,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3088,7 +3094,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3098,11 +3104,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -3121,7 +3127,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3131,14 +3137,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3154,7 +3160,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3164,14 +3170,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3180,14 +3186,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,11 +3203,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,11 +3236,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3246,14 +3252,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,11 +3269,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3296,7 +3302,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3319,7 +3325,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3329,11 +3335,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3345,14 +3351,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3362,7 +3368,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3385,7 +3391,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3395,11 +3401,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3411,14 +3417,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3465,10 +3471,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3494,11 +3500,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3510,31 +3516,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3543,31 +3549,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3609,28 +3615,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3642,28 +3648,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3692,14 +3698,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3708,14 +3714,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3725,11 +3731,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3741,14 +3747,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3758,11 +3764,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3774,14 +3780,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3791,14 +3797,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3807,14 +3813,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,14 +3830,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3840,14 +3846,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,11 +3863,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3873,14 +3879,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,14 +3896,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3913,7 +3919,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,14 +3929,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,14 +3945,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,14 +3962,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +3995,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4022,11 +4028,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4045,7 +4051,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,11 +4061,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4071,14 +4077,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,11 +4094,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4111,7 +4117,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,11 +4127,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,11 +4160,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,11 +4193,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4203,14 +4209,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,11 +4226,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4236,14 +4242,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,14 +4259,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4269,14 +4275,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4292,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>202</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,14 +4308,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4325,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4358,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4368,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4391,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,14 +4407,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4441,7 +4447,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4455,7 +4461,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>29</v>
@@ -4474,7 +4480,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,11 +4490,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>121</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>29</v>
@@ -4500,31 +4506,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4540,7 +4546,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4554,10 +4560,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,14 +4572,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,14 +4589,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,14 +4605,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4616,11 +4622,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4632,14 +4638,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,14 +4655,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4665,14 +4671,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,14 +4688,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4705,7 +4711,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,14 +4721,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4738,7 +4744,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4752,10 +4758,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,14 +4770,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4781,7 +4787,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4814,11 +4820,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>91</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4830,7 +4836,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4847,14 +4853,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>267</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4880,14 +4886,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>107</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4896,14 +4902,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,14 +4919,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>282</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4929,14 +4935,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4946,11 +4952,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4969,7 +4975,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,11 +4985,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>84</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>292</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4995,14 +5001,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,11 +5018,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5028,14 +5034,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,11 +5051,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5061,14 +5067,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,14 +5084,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5101,7 +5107,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,14 +5117,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5127,14 +5133,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,11 +5150,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5160,14 +5166,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5177,14 +5183,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5193,14 +5199,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5210,14 +5216,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5226,14 +5232,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5243,11 +5249,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5259,14 +5265,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5276,11 +5282,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5292,14 +5298,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5309,11 +5315,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5325,14 +5331,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5342,11 +5348,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>183</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5358,14 +5364,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5375,11 +5381,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5391,7 +5397,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5408,49 +5414,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>316</v>
+        <v>101</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6208.5</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>317</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>127</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>41</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
         <v>318</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6212.3400000000001</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>319</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>320</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>321</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6039,10 +6078,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -968,7 +968,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:35 PM</t>
+    <t>Saturday, 9 August, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -506,6 +506,12 @@
     <t>1:4</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -530,6 +536,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>NAPIZOLE 20MG 14 CAP</t>
   </si>
   <si>
@@ -674,6 +689,18 @@
     <t>37.9200</t>
   </si>
   <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -968,7 +995,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:46 PM</t>
+    <t>Saturday, 9 August, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3160,24 +3187,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3193,7 +3220,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3203,14 +3230,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3219,14 +3246,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3236,11 +3263,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3252,14 +3279,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3269,11 +3296,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3285,7 +3312,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3302,11 +3329,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3318,14 +3345,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3335,7 +3362,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3358,7 +3385,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3391,7 +3418,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3401,7 +3428,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3424,7 +3451,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,11 +3461,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3450,14 +3477,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3471,10 +3498,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3483,14 +3510,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3500,11 +3527,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3516,14 +3543,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3533,14 +3560,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3549,31 +3576,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3582,14 +3609,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3599,14 +3626,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3615,7 +3642,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3628,18 +3655,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3648,31 +3675,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3681,14 +3708,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3698,11 +3725,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3714,31 +3741,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,14 +3774,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3764,14 +3791,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3780,14 +3807,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3797,11 +3824,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3813,7 +3840,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3830,14 +3857,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3846,14 +3873,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3863,11 +3890,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3879,14 +3906,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,14 +3923,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3912,14 +3939,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3929,14 +3956,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3952,7 +3979,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3962,14 +3989,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3978,14 +4005,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3995,11 +4022,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>29</v>
@@ -4011,14 +4038,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4028,14 +4055,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4044,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4061,11 +4088,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4077,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4094,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4110,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4127,11 +4154,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4143,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4160,11 +4187,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4176,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4193,11 +4220,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4209,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4226,11 +4253,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4242,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4259,11 +4286,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4275,14 +4302,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4292,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4308,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4325,14 +4352,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4341,14 +4368,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4358,11 +4385,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4374,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4391,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4407,14 +4434,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4431,7 +4458,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4447,7 +4474,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4461,10 +4488,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,14 +4500,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4490,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4506,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4523,14 +4550,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4539,31 +4566,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4572,31 +4599,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4605,31 +4632,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4645,7 +4672,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4655,7 +4682,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4671,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4692,7 +4719,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4704,14 +4731,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4721,11 +4748,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4737,14 +4764,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4754,14 +4781,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4770,14 +4797,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4787,14 +4814,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4803,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4820,11 +4847,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4836,7 +4863,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4853,14 +4880,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4869,14 +4896,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4886,14 +4913,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>269</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4902,7 +4929,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4919,14 +4946,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4935,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4952,11 +4979,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4968,14 +4995,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4985,14 +5012,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>84</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5001,7 +5028,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5018,14 +5045,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5034,14 +5061,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5051,11 +5078,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5067,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5084,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>297</v>
+        <v>84</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5100,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5117,14 +5144,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>90</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5133,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5166,14 +5193,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5183,11 +5210,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5199,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5216,11 +5243,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5232,14 +5259,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5249,11 +5276,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5265,14 +5292,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>308</v>
+        <v>72</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5282,11 +5309,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5298,14 +5325,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5315,14 +5342,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5331,14 +5358,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5348,11 +5375,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5364,14 +5391,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>142</v>
+        <v>317</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5381,11 +5408,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5397,14 +5424,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5414,11 +5441,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5430,14 +5457,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5447,49 +5474,148 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6212.3400000000001</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>319</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>320</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>321</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>324</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>142</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>41</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>31</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>325</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>127</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>41</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>101</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>326</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>127</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>41</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>327</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6253.8599999999997</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>328</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>329</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>330</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6083,10 +6209,25 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>8.1600</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -434,12 +443,27 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>212.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>79.00</t>
   </si>
   <si>
@@ -770,9 +794,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
   </si>
   <si>
@@ -902,6 +923,12 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -995,7 +1022,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:54 PM</t>
+    <t>Saturday, 9 August, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2164,7 +2191,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2174,11 +2201,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2214,7 +2241,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2230,7 +2257,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2240,14 +2267,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2256,28 +2283,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2289,20 +2316,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2329,7 +2356,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2346,7 +2373,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2362,7 +2389,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2395,7 +2422,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2405,14 +2432,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2438,14 +2465,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2461,7 +2488,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2511,7 +2538,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2527,7 +2554,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2537,11 +2564,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2553,14 +2580,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2570,14 +2597,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2586,14 +2613,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2603,11 +2630,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
@@ -2619,14 +2646,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2643,7 +2670,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2659,7 +2686,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2669,14 +2696,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2685,20 +2712,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2725,24 +2752,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2791,13 +2818,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2830,7 +2857,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2841,7 +2868,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2857,7 +2884,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2867,11 +2894,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2883,14 +2910,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2916,14 +2943,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2933,11 +2960,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2949,14 +2976,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2966,14 +2993,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2982,14 +3009,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2999,11 +3026,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3015,7 +3042,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3032,11 +3059,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3048,28 +3075,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3081,14 +3108,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3098,11 +3125,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3114,7 +3141,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3131,14 +3158,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3154,24 +3181,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3180,31 +3207,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3230,14 +3257,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3263,14 +3290,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3279,31 +3306,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3319,7 +3346,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3329,14 +3356,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3345,14 +3372,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3362,11 +3389,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3378,14 +3405,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3395,11 +3422,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3411,14 +3438,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3428,7 +3455,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3484,7 +3511,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,11 +3521,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3510,14 +3537,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,11 +3554,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3543,7 +3570,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3560,14 +3587,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3576,14 +3603,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3597,7 +3624,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3609,7 +3636,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3626,11 +3653,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3642,7 +3669,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3655,18 +3682,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3675,14 +3702,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,14 +3719,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3708,14 +3735,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3725,11 +3752,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3741,14 +3768,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3758,14 +3785,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3774,14 +3801,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3791,14 +3818,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3807,14 +3834,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,14 +3851,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3840,7 +3867,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3853,18 +3880,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,14 +3900,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,14 +3917,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3906,14 +3933,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,14 +3950,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3939,14 +3966,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3956,11 +3983,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>29</v>
@@ -3972,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3989,11 +4016,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -4005,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,14 +4049,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4038,14 +4065,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4055,14 +4082,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4071,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4104,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4121,11 +4148,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>29</v>
@@ -4137,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4154,14 +4181,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4170,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,11 +4214,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4203,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4236,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,11 +4280,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4269,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,11 +4313,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4302,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,11 +4346,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4335,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,11 +4379,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4368,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,11 +4412,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4401,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4422,10 +4449,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4434,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,14 +4478,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,11 +4511,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4500,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4533,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,14 +4610,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4599,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4639,7 +4666,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4676,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,31 +4692,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,31 +4725,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,31 +4758,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>124</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,11 +4808,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4797,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,11 +4841,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4830,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,11 +4874,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4863,14 +4890,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4880,14 +4907,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4903,7 +4930,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4913,14 +4940,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4936,7 +4963,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4946,11 +4973,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4979,14 +5006,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,14 +5022,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,14 +5039,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>278</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5028,7 +5055,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5045,14 +5072,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,14 +5088,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5078,11 +5105,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>293</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5094,14 +5121,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5111,14 +5138,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>85</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5127,7 +5154,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5144,14 +5171,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5160,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,11 +5204,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5193,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,11 +5237,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>87</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5226,14 +5253,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,14 +5270,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>90</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5259,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5292,14 +5319,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,11 +5336,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5325,14 +5352,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,11 +5369,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>275</v>
+        <v>93</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5358,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5375,11 +5402,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5391,14 +5418,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5408,11 +5435,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5424,14 +5451,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5441,14 +5468,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5457,14 +5484,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5474,11 +5501,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5490,14 +5517,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>142</v>
+        <v>326</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5507,11 +5534,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>31</v>
+        <v>327</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5523,14 +5550,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5540,11 +5567,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5556,14 +5583,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5573,49 +5600,148 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6253.8599999999997</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>328</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>329</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>330</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>333</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>145</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>41</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>31</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>334</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>130</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>41</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>104</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>335</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>130</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>41</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>336</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6713.8599999999997</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>337</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>338</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>339</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6224,10 +6350,25 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-09_00-00.xlsx
+++ b/DaySale_2025-08-09_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>COLD CONTROL 20 TAB</t>
   </si>
   <si>
@@ -311,6 +320,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -494,12 +515,6 @@
     <t>HEALSEC 40MG 14 CAPS.</t>
   </si>
   <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -689,12 +704,6 @@
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
     <t>RIVAROSPIRE 10 MG 20 F.C. TAB.</t>
   </si>
   <si>
@@ -833,6 +842,18 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8422:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>WESTABREATH 500 MCG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -866,9 +887,6 @@
     <t>بودره نلج اكياس</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -920,9 +938,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>34.0000</t>
   </si>
   <si>
@@ -1022,7 +1037,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 9 August, 2025 9:56 PM</t>
+    <t>Saturday, 9 August, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2356,7 +2371,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2389,7 +2404,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2406,7 +2421,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2422,7 +2437,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2455,7 +2470,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2465,14 +2480,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2521,7 +2536,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2604,7 +2619,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2620,7 +2635,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2663,14 +2678,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2696,14 +2711,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2752,13 +2767,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2769,7 +2784,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2802,7 +2817,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2824,7 +2839,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2835,7 +2850,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2851,21 +2866,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2877,14 +2892,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2910,31 +2925,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2960,14 +2975,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3026,11 +3041,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3042,14 +3057,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3092,11 +3107,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3125,11 +3140,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3158,11 +3173,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3174,28 +3189,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3224,11 +3239,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3240,31 +3255,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3280,7 +3295,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3306,28 +3321,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>29</v>
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3356,14 +3